--- a/data/hotels_by_city/Houston/Houston_shard_661.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_661.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="530">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g1009393-d1158825-Reviews-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-TownePlace-Suites-By-Marriott-Houston-North-Shenandoah.h2177733.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531699288943&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=8ad15e1d-f803-490a-8330-6890ac8cb2f0&amp;mctc=9&amp;exp_dp=101&amp;exp_ts=1531699289656&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1470 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r583359770-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>1009393</t>
+  </si>
+  <si>
+    <t>1158825</t>
+  </si>
+  <si>
+    <t>583359770</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Great stay-restaurants within walking distance</t>
+  </si>
+  <si>
+    <t>Great stay for the night prior to a morning flight out of IAH.  One of my preferred options is a nearby place where I can sit at a bar and eat dinner/enjoy a couple beers after coming off the road, and there are two placesOutback and Twin Peaks) within a 5 minute walk.  Comfortable rooms with full size fridge and kitchenette.  The 3rd floor was nice and quiet.  Breakfast was great and the kitchen area was well stocked and clean.  The staff was very friendly both at check in and check out.  Only gripe was the AC didn’t get super cold at night, but 69 was good enough to sleep comfortably.  I will definitely stay here again the next time I am in the area.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Great stay for the night prior to a morning flight out of IAH.  One of my preferred options is a nearby place where I can sit at a bar and eat dinner/enjoy a couple beers after coming off the road, and there are two placesOutback and Twin Peaks) within a 5 minute walk.  Comfortable rooms with full size fridge and kitchenette.  The 3rd floor was nice and quiet.  Breakfast was great and the kitchen area was well stocked and clean.  The staff was very friendly both at check in and check out.  Only gripe was the AC didn’t get super cold at night, but 69 was good enough to sleep comfortably.  I will definitely stay here again the next time I am in the area.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r576866883-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>576866883</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Stayed Friday night while in town for a concert, and was thrilled with hotel. Check in and check out were quick and easy. Rooms were clean and comfortable. Room is well stocked with supplies. Beds are comfortable. About 10 minutes away from concert venue makes it convenient. Will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Stayed Friday night while in town for a concert, and was thrilled with hotel. Check in and check out were quick and easy. Rooms were clean and comfortable. Room is well stocked with supplies. Beds are comfortable. About 10 minutes away from concert venue makes it convenient. Will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r571368479-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>571368479</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>Great hotel, great service</t>
+  </si>
+  <si>
+    <t>Hotel itself is newer, room is pretty nice. Internet TV options (netflix, etc) are available. Breakfast is pretty standard, nothing to complain about. Location is good if you have a vehicle, about a 10 minute drive from the Woodlands shopping area/mall/waterway.  It's off the south feeder road so depending on where you're coming from or heading to, it can be a bit inconvenient. Free cookies at the front desk all day, and the cookies are very good. Service was great. They ran out of cookies one evening, and one of the front desk agents went out of her way to make sure I had cookies the next day. Would not hesitate to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded April 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2018</t>
+  </si>
+  <si>
+    <t>Hotel itself is newer, room is pretty nice. Internet TV options (netflix, etc) are available. Breakfast is pretty standard, nothing to complain about. Location is good if you have a vehicle, about a 10 minute drive from the Woodlands shopping area/mall/waterway.  It's off the south feeder road so depending on where you're coming from or heading to, it can be a bit inconvenient. Free cookies at the front desk all day, and the cookies are very good. Service was great. They ran out of cookies one evening, and one of the front desk agents went out of her way to make sure I had cookies the next day. Would not hesitate to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r563252441-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>563252441</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>Loved it!</t>
+  </si>
+  <si>
+    <t>Great StayI always forget about Towne Place Suites as an option. So glad I didn't this time. LOCATION-I needed to be north of Houston. This was an ideal location right off 45, and near several shops and restaurants. Yet, not congested with traffic and the area felt very safe. STAFF-Typical, friendly, Marriott welcome. Always grateful to be able to check-in early. ROOMS-Very clean and comfortable. The bedding and pillows were heavenly, and the room offered so much more than I expected. At a great rate, too! Complimentary breakfast was offered- it was nice to see how clean and tidy the area was. It was too cold to try out the pool, but it looked very inviting... loved the patio area alongside it. Can't wait to return.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded February 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2018</t>
+  </si>
+  <si>
+    <t>Great StayI always forget about Towne Place Suites as an option. So glad I didn't this time. LOCATION-I needed to be north of Houston. This was an ideal location right off 45, and near several shops and restaurants. Yet, not congested with traffic and the area felt very safe. STAFF-Typical, friendly, Marriott welcome. Always grateful to be able to check-in early. ROOMS-Very clean and comfortable. The bedding and pillows were heavenly, and the room offered so much more than I expected. At a great rate, too! Complimentary breakfast was offered- it was nice to see how clean and tidy the area was. It was too cold to try out the pool, but it looked very inviting... loved the patio area alongside it. Can't wait to return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r561533259-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>561533259</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>Good rooms, free beer</t>
+  </si>
+  <si>
+    <t>Everything about my stay was great. M-T-W 5-7pm they do free food and beer in the lobby. Location is good, shuttle service is fine, rooms are great. Nothing wrong with this place at all. Full kitchenette so you can prep your own meals.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded February 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2018</t>
+  </si>
+  <si>
+    <t>Everything about my stay was great. M-T-W 5-7pm they do free food and beer in the lobby. Location is good, shuttle service is fine, rooms are great. Nothing wrong with this place at all. Full kitchenette so you can prep your own meals.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r548230014-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>548230014</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>Perfect in every way!</t>
+  </si>
+  <si>
+    <t>Hubs and I came in for the night so we could relax before picking up our daughter at the airport early the next day.  This hotel is conveniently located near great restaurants, shopping, the Waterway, etc.  We were greeted warmly and given our choice of floors.  The room was spotless, spacious, and very comfortable.  Loved the king bed and slept like babies.  Breakfast had numerous choices including 3 kinds of eggs, bagels, toast, cereals, pork and turkey sausage, yogurt, juices, coffee with flavored syrups, oatmeal with toppings, and a waffle maker with sugar free and regular syrup.  We noticed they even had a gift wrapping station for guests!  Its obvious they pay great attention to detail and care about guests.  Every employee we crossed paths with was extremely friendly.  We will definitely stay here any time we are in the area. Loved it!  MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded December 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 25, 2017</t>
+  </si>
+  <si>
+    <t>Hubs and I came in for the night so we could relax before picking up our daughter at the airport early the next day.  This hotel is conveniently located near great restaurants, shopping, the Waterway, etc.  We were greeted warmly and given our choice of floors.  The room was spotless, spacious, and very comfortable.  Loved the king bed and slept like babies.  Breakfast had numerous choices including 3 kinds of eggs, bagels, toast, cereals, pork and turkey sausage, yogurt, juices, coffee with flavored syrups, oatmeal with toppings, and a waffle maker with sugar free and regular syrup.  We noticed they even had a gift wrapping station for guests!  Its obvious they pay great attention to detail and care about guests.  Every employee we crossed paths with was extremely friendly.  We will definitely stay here any time we are in the area. Loved it!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r507506107-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>507506107</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Very Nice Surprise!!</t>
+  </si>
+  <si>
+    <t>We were a little concerned after reading some of the reviews but let me assure you that this is a very nice little hotel in a great location if you are visiting The Woodlands area. Check in was a breeze and the young man at the front desk was very polite and attentive. The room was as big or bigger than most hotels in this price range. The free breakfast had many choices such as make your own waffles, scrambled eggs, cereals, yogurts, muffins and fresh fruit. And the coffee was excellent!! Internet was free and fast! The pool area was extremely nice. But the best thing of all was that the hotel was very CLEAN! Beds were comfortable, even the pull out sofa bed was in good shape. Bathrooms were large with an awesome shower. There was also a small kitchen with all of the essentials like pots and pans, plates and silverware. It would be a great place for an extended stay. No complaints and I highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>We were a little concerned after reading some of the reviews but let me assure you that this is a very nice little hotel in a great location if you are visiting The Woodlands area. Check in was a breeze and the young man at the front desk was very polite and attentive. The room was as big or bigger than most hotels in this price range. The free breakfast had many choices such as make your own waffles, scrambled eggs, cereals, yogurts, muffins and fresh fruit. And the coffee was excellent!! Internet was free and fast! The pool area was extremely nice. But the best thing of all was that the hotel was very CLEAN! Beds were comfortable, even the pull out sofa bed was in good shape. Bathrooms were large with an awesome shower. There was also a small kitchen with all of the essentials like pots and pans, plates and silverware. It would be a great place for an extended stay. No complaints and I highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r502261893-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>502261893</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Not your typical mid range hote</t>
+  </si>
+  <si>
+    <t>The rooms are incredibly small.  What they call a suite is a bed with couch about 1 foot between and ridiculously uncomfortable.  Bed had crumbs in it and there were roaches in our bathroom still alive.  I would never stay at this chain again.  The price was slightly lower than normal but caliber was very low. More like a Motel 6.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>The rooms are incredibly small.  What they call a suite is a bed with couch about 1 foot between and ridiculously uncomfortable.  Bed had crumbs in it and there were roaches in our bathroom still alive.  I would never stay at this chain again.  The price was slightly lower than normal but caliber was very low. More like a Motel 6.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r498689969-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>498689969</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>4th. of July</t>
+  </si>
+  <si>
+    <t>Nice to see this as i travel. Rooms are what your would expect from the Mariott brand. clean and modern. Bed's are 5 Star .... what a nice suprise was the 4th. of july thought..  Hot Dogs and Chili... Nice. wine and beer even nicer....Love thiss place.... Patsy your fantastice... (She checked me in )MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Nice to see this as i travel. Rooms are what your would expect from the Mariott brand. clean and modern. Bed's are 5 Star .... what a nice suprise was the 4th. of july thought..  Hot Dogs and Chili... Nice. wine and beer even nicer....Love thiss place.... Patsy your fantastice... (She checked me in )More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r468622566-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>468622566</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Tried the rest and now found the best</t>
+  </si>
+  <si>
+    <t>My stay has truly been a ***** visit.  Service is out of this world. Thank you for meeting all my special needs.  Modern rooms - great service - great food..  These guys will get all my business.... Thank youJudy.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded March 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2017</t>
+  </si>
+  <si>
+    <t>My stay has truly been a ***** visit.  Service is out of this world. Thank you for meeting all my special needs.  Modern rooms - great service - great food..  These guys will get all my business.... Thank youJudy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r463030124-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>463030124</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>Richard was so patient and kind add we checked in.  Terrel was so helpful as was Nona.  The beds were very comfy and the room was large and had a full kitchen and an Envy Closet.  The pool was heated and very pretty.  Terrel was cooking breakfast, too.  Real scrambled, fried and peeled boiled eggs, real Canadian bacon, waffles, fruit, bagels, juice, custom coffees, teas and cereals +....great stay!  Good recommendation from Richard to go to El Medina restaurant for lunch.  Great food and prices.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded March 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2017</t>
+  </si>
+  <si>
+    <t>Richard was so patient and kind add we checked in.  Terrel was so helpful as was Nona.  The beds were very comfy and the room was large and had a full kitchen and an Envy Closet.  The pool was heated and very pretty.  Terrel was cooking breakfast, too.  Real scrambled, fried and peeled boiled eggs, real Canadian bacon, waffles, fruit, bagels, juice, custom coffees, teas and cereals +....great stay!  Good recommendation from Richard to go to El Medina restaurant for lunch.  Great food and prices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r448925846-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>448925846</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Our family stayed here when visiting relatives in the area. Our room was clean, well appointed and lived larger than it was. The staff was helpful and friendly. Breakfast was reasonably good with plenty of food, a little more variety would've been nice, but you at least didn't go hungry.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded January 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2017</t>
+  </si>
+  <si>
+    <t>Our family stayed here when visiting relatives in the area. Our room was clean, well appointed and lived larger than it was. The staff was helpful and friendly. Breakfast was reasonably good with plenty of food, a little more variety would've been nice, but you at least didn't go hungry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r417698241-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>417698241</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Great short or long term stay.</t>
+  </si>
+  <si>
+    <t>The king room is not a suite per-say but it an efficiency room. Not sure if it was the room or the drainage but real musty smell as you walk in the room every time. Very clean, breakfast is good but you have to wait till 7am on the weekends. The hotel is very hard to get to and hidden, the lobby entrance is hard to find, as well the hotel is not very handicap accessible. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2016</t>
+  </si>
+  <si>
+    <t>The king room is not a suite per-say but it an efficiency room. Not sure if it was the room or the drainage but real musty smell as you walk in the room every time. Very clean, breakfast is good but you have to wait till 7am on the weekends. The hotel is very hard to get to and hidden, the lobby entrance is hard to find, as well the hotel is not very handicap accessible. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r417678343-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>417678343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just Fantastic </t>
+  </si>
+  <si>
+    <t>Truly a home away from home. I believe they actually care about your visit. I stay hotels weekly and I enjoy everything about this hotel. Leaps and bounds better than the rest. If your looking to get pampered this place is for you. JohnMoreShow less</t>
+  </si>
+  <si>
+    <t>Truly a home away from home. I believe they actually care about your visit. I stay hotels weekly and I enjoy everything about this hotel. Leaps and bounds better than the rest. If your looking to get pampered this place is for you. JohnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r413697605-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>413697605</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, free breakfast</t>
+  </si>
+  <si>
+    <t>My sister and I stayed here for a night while attending a conference. It was very clean, staff was very friendly, good sized room with kitchen. Good amount of space and comfortable bed. Free breakfast with stay. I would stay here again. Great price too! MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded September 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2016</t>
+  </si>
+  <si>
+    <t>My sister and I stayed here for a night while attending a conference. It was very clean, staff was very friendly, good sized room with kitchen. Good amount of space and comfortable bed. Free breakfast with stay. I would stay here again. Great price too! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r402550406-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>402550406</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect </t>
+  </si>
+  <si>
+    <t>it was one of the best Hotels we've ever been at.Even our Baby enjoyed it. The employees r very nice. The Breakfast is okay, it's an open Buffet. Not many variations, but its not bad. Many Restaurants r in the Area, Target ist very close to the Hotel. The Hotel has a Shuttle u can use for no money. They drive u anywhere u want ( up to 5 Miles away) and pick u up till 9:30 pm. They also have a Pool...it was awesome! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded August 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2016</t>
+  </si>
+  <si>
+    <t>it was one of the best Hotels we've ever been at.Even our Baby enjoyed it. The employees r very nice. The Breakfast is okay, it's an open Buffet. Not many variations, but its not bad. Many Restaurants r in the Area, Target ist very close to the Hotel. The Hotel has a Shuttle u can use for no money. They drive u anywhere u want ( up to 5 Miles away) and pick u up till 9:30 pm. They also have a Pool...it was awesome! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r397705498-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>397705498</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home feel </t>
+  </si>
+  <si>
+    <t>We stayed here for a weekend and really enjoyed it. The pool is nice, it doesn't have a jacuzzi but the out door space is very beautiful. You can sit and enjoy a cup of coffee and watch tv or play a game of tick tack toe with the kids, I believe they also have a basketball court. Breakfast and dinner are complimentary as do they also have warm cookies for their guest. I like that the property is nestled in. The rooms however do need to be upgraded. The dish washer was leaning forward, the first room had a stink to it and the sofa bed mattress had a big blood stain on it!!! Very gross! We had a late check in so when I called front desk to place a complaint he explained he was the only one on duty and couldn't do much at that time but he offered another room which I declined since we had connecting rooms and it was very late. We left early the next morning and when we came back the dirty mattress had already been replaced. MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded July 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for a weekend and really enjoyed it. The pool is nice, it doesn't have a jacuzzi but the out door space is very beautiful. You can sit and enjoy a cup of coffee and watch tv or play a game of tick tack toe with the kids, I believe they also have a basketball court. Breakfast and dinner are complimentary as do they also have warm cookies for their guest. I like that the property is nestled in. The rooms however do need to be upgraded. The dish washer was leaning forward, the first room had a stink to it and the sofa bed mattress had a big blood stain on it!!! Very gross! We had a late check in so when I called front desk to place a complaint he explained he was the only one on duty and couldn't do much at that time but he offered another room which I declined since we had connecting rooms and it was very late. We left early the next morning and when we came back the dirty mattress had already been replaced. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r389630130-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>389630130</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Nice and very friendly place</t>
+  </si>
+  <si>
+    <t>Had 4 nights in this hotel and all was quite perfect.Confortable rooms with complete kitchen from american fridge to dish wash machine.Aircon was good and area is very quite at night.Easy to find in a nice business area.Beakfast is a little bit cheap....MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Had 4 nights in this hotel and all was quite perfect.Confortable rooms with complete kitchen from american fridge to dish wash machine.Aircon was good and area is very quite at night.Easy to find in a nice business area.Beakfast is a little bit cheap....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r379917833-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>379917833</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Pretty hotel, looks newer or recently updated, has friendly staff.  Hotel is across the highway from restaurants and down the street from shopping.  But they off an on demand shuttle to cart you around the local area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Pretty hotel, looks newer or recently updated, has friendly staff.  Hotel is across the highway from restaurants and down the street from shopping.  But they off an on demand shuttle to cart you around the local area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r376577782-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>376577782</t>
+  </si>
+  <si>
+    <t>05/25/2016</t>
+  </si>
+  <si>
+    <t>Saved our trip to The Woodlands</t>
+  </si>
+  <si>
+    <t>Was in Houston for Ironman Texas and not looking for the perfect place, just a clean hotel to sleep, shower and get a half way decent breakfast. After a horrible experience at another property several of us needed to find a new place during a very busy week with over 2000 athletes in the area. We lucked out by getting rooms here on the Thursday before the Saturday event. The lady at the front desk got most of us checked in early, like before 10 am!! They were were wrapping up breakfast and another nice lady offered us food before she put it away and before we were even checked in! The staff as a whole was the best part, they were amazing the whole time even putting out food for athletes at 4 am on race day. The rooms were clean, comfortable and just what we needed with full kitchens to prepare for and recover from Ironman. Thank you TownPlace Suites!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded May 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2016</t>
+  </si>
+  <si>
+    <t>Was in Houston for Ironman Texas and not looking for the perfect place, just a clean hotel to sleep, shower and get a half way decent breakfast. After a horrible experience at another property several of us needed to find a new place during a very busy week with over 2000 athletes in the area. We lucked out by getting rooms here on the Thursday before the Saturday event. The lady at the front desk got most of us checked in early, like before 10 am!! They were were wrapping up breakfast and another nice lady offered us food before she put it away and before we were even checked in! The staff as a whole was the best part, they were amazing the whole time even putting out food for athletes at 4 am on race day. The rooms were clean, comfortable and just what we needed with full kitchens to prepare for and recover from Ironman. Thank you TownPlace Suites!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r370797205-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>370797205</t>
+  </si>
+  <si>
+    <t>05/06/2016</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>Nice staff.  Good breakfast.  Comfy. Clean.  They have a nightly meal and drink service which is nice to have when traveling.  The room was nicely furnished.  The bed was comfortable.  Conveniently located near the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Nice staff.  Good breakfast.  Comfy. Clean.  They have a nightly meal and drink service which is nice to have when traveling.  The room was nicely furnished.  The bed was comfortable.  Conveniently located near the highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r359128070-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>359128070</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>stayed here for a Woodlands Conference</t>
+  </si>
+  <si>
+    <t>I stayed here for a conference held at the Woodlands.  Only 10 minutes away, and easy to get to.  Very clean and a great breakfast.  Kitchen is a plus although I did not use it.  Air conditioning was a bit noisy.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for a conference held at the Woodlands.  Only 10 minutes away, and easy to get to.  Very clean and a great breakfast.  Kitchen is a plus although I did not use it.  Air conditioning was a bit noisy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r353084438-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>353084438</t>
+  </si>
+  <si>
+    <t>03/05/2016</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>From the front desk 'greeting' that was non existent, to the old fixtures in the room, this did not live up to the standards I would expect.  Really frustrated by the broken AC in the work-out room, making exercise intolerable, for all 3 nights of my stay.  I felt like not only did the hotel need a facelift, but the evening front desk lady (no name badge) needed to have a lesson in customer service or find an opportunity elsewhere.  My room was clean, but I was surprised to see that the dirty coffee cup from the morning when I rushed off to work was still in the same place I left it by the sofa.  Very unusual.  I will not return.MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded March 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2016</t>
+  </si>
+  <si>
+    <t>From the front desk 'greeting' that was non existent, to the old fixtures in the room, this did not live up to the standards I would expect.  Really frustrated by the broken AC in the work-out room, making exercise intolerable, for all 3 nights of my stay.  I felt like not only did the hotel need a facelift, but the evening front desk lady (no name badge) needed to have a lesson in customer service or find an opportunity elsewhere.  My room was clean, but I was surprised to see that the dirty coffee cup from the morning when I rushed off to work was still in the same place I left it by the sofa.  Very unusual.  I will not return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r347402986-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>347402986</t>
+  </si>
+  <si>
+    <t>02/13/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel - Perfect for Families or a Long Stay</t>
+  </si>
+  <si>
+    <t>This hotel was in a great location near The Woodlands. The rooms were large with a complete kitchen - full size refrigerator, dishwasher, sink, microwave &amp; stovetop. Perfect for families or if you were needing to stay for an extended time. The beds are comfy &amp; the couch in each room also makes into a bed. The staff was very friendly. Breakfast is served daily &amp; they also have a cocktail hour during the weekdays. Great hotel for money! MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded February 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was in a great location near The Woodlands. The rooms were large with a complete kitchen - full size refrigerator, dishwasher, sink, microwave &amp; stovetop. Perfect for families or if you were needing to stay for an extended time. The beds are comfy &amp; the couch in each room also makes into a bed. The staff was very friendly. Breakfast is served daily &amp; they also have a cocktail hour during the weekdays. Great hotel for money! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r319294965-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>319294965</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>Fantastic Hotel!</t>
+  </si>
+  <si>
+    <t>Clean, modern and friendly! Stayed for two nights for the Texas Renaissance Festival. Check in was fast and friendly, room was clean and pretty large including the bathroom.Kitchenette was nice, I was surprised that it had a full size fridge and a dishwasher! Fantastic! The hotel also serves a hot breakfast which was delicious. The hotel is located close to a large shopping center and mall which was nice for a quick trip and dinner.Wouldn't hesitate to stay here next year for the festival.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded October 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2015</t>
+  </si>
+  <si>
+    <t>Clean, modern and friendly! Stayed for two nights for the Texas Renaissance Festival. Check in was fast and friendly, room was clean and pretty large including the bathroom.Kitchenette was nice, I was surprised that it had a full size fridge and a dishwasher! Fantastic! The hotel also serves a hot breakfast which was delicious. The hotel is located close to a large shopping center and mall which was nice for a quick trip and dinner.Wouldn't hesitate to stay here next year for the festival.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r309064827-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>309064827</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>Good place for business travelers.</t>
+  </si>
+  <si>
+    <t>My company switched me to this hotel at the last minute. I wound up glad that they did. Each room has a full size fridge and a small stove with everything needed to cook up your meals (something I'll do next time). Breakfast was good, and there is a manager's reception each evening with free beer and wine, which I will never complain about. The room was comfortable and clean, and the fitness center was a bit better than what I usually see with a full set of dumb bells. All in all, I'll ask them to book me here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded September 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2015</t>
+  </si>
+  <si>
+    <t>My company switched me to this hotel at the last minute. I wound up glad that they did. Each room has a full size fridge and a small stove with everything needed to cook up your meals (something I'll do next time). Breakfast was good, and there is a manager's reception each evening with free beer and wine, which I will never complain about. The room was comfortable and clean, and the fitness center was a bit better than what I usually see with a full set of dumb bells. All in all, I'll ask them to book me here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r306082746-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>306082746</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Outstanding Hotel</t>
+  </si>
+  <si>
+    <t>Somewhat difficult to get to initially, especially when you are going North on I-45. But I figured it out. Once I arrived, I was met by a very friendly Front Desk person. She was very helpful and checked me in with no problems. Even answered some questions about nearby restaurants.Got to my room and was greeted by a very nice clean room. Had a small kitchenette, King Bed and nice sitting area. This room had everything you would need when traveling. I couldn't have asked for anything more.Figured out the back way to get places and I have to say this hotel is perfectly located if you are doing business in The Woodlands area or North Houston. I will be back in a few weeks and will most definitely be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded September 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2015</t>
+  </si>
+  <si>
+    <t>Somewhat difficult to get to initially, especially when you are going North on I-45. But I figured it out. Once I arrived, I was met by a very friendly Front Desk person. She was very helpful and checked me in with no problems. Even answered some questions about nearby restaurants.Got to my room and was greeted by a very nice clean room. Had a small kitchenette, King Bed and nice sitting area. This room had everything you would need when traveling. I couldn't have asked for anything more.Figured out the back way to get places and I have to say this hotel is perfectly located if you are doing business in The Woodlands area or North Houston. I will be back in a few weeks and will most definitely be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r295102022-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>295102022</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent </t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights while my husband was here on business. Everything was very nice - lobby was large, clean and airy. Great pool area and a separate patio. Nice, clean room. Great service from friendly staff. There was breakfast provided with good selections to choose from. A single dinner entree also was available on the two weeknights we were there, which was a nice alternative to not having to go out to get something to eat. The food reminded me of a homemade meal as opposed to a restaurant meal. If / when in Houston, would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded August 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights while my husband was here on business. Everything was very nice - lobby was large, clean and airy. Great pool area and a separate patio. Nice, clean room. Great service from friendly staff. There was breakfast provided with good selections to choose from. A single dinner entree also was available on the two weeknights we were there, which was a nice alternative to not having to go out to get something to eat. The food reminded me of a homemade meal as opposed to a restaurant meal. If / when in Houston, would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r288188094-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>288188094</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Good sleep after a long flight</t>
+  </si>
+  <si>
+    <t>Our flight from Europe took 24 hours and it was nice to go to a nice clean room and just start sleeping. The hotel was easy to find and not too long drive from the Houston airport. Like others have said the staff was nice. Our room was quiet and the bed was comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded July 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2015</t>
+  </si>
+  <si>
+    <t>Our flight from Europe took 24 hours and it was nice to go to a nice clean room and just start sleeping. The hotel was easy to find and not too long drive from the Houston airport. Like others have said the staff was nice. Our room was quiet and the bed was comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r286056887-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>286056887</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Exceeded our expectations</t>
+  </si>
+  <si>
+    <t>We were looking for a clean room and comfortable bed for the night.  The staff was marvelous.  The room was not only clean, but spacious.  The bed was very comfortable.  The only disadvantage was that we had to check out!MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded July 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2015</t>
+  </si>
+  <si>
+    <t>We were looking for a clean room and comfortable bed for the night.  The staff was marvelous.  The room was not only clean, but spacious.  The bed was very comfortable.  The only disadvantage was that we had to check out!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r272373578-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>272373578</t>
+  </si>
+  <si>
+    <t>05/16/2015</t>
+  </si>
+  <si>
+    <t>Very friendly service!</t>
+  </si>
+  <si>
+    <t>Very friendly staff on all shifts! We returned from visiting with friends late and were looking for a snack. They have a little snack for purchase area that we were looking through and the clerk was so eager to help that he offered some bagels from the closed kitchen! Everything was clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded May 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2015</t>
+  </si>
+  <si>
+    <t>Very friendly staff on all shifts! We returned from visiting with friends late and were looking for a snack. They have a little snack for purchase area that we were looking through and the clerk was so eager to help that he offered some bagels from the closed kitchen! Everything was clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r263633509-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>263633509</t>
+  </si>
+  <si>
+    <t>04/04/2015</t>
+  </si>
+  <si>
+    <t>Good value, friendly staff lead to pleasant experience</t>
+  </si>
+  <si>
+    <t>On a recent trip to the area, we stayed five nights at the TownePlace Suites and were very pleased.  The room was clean, the breakfast was above average and the value for the price was certainly very good.  Every experience with a hotel employee was very good.  I would not hesitate to recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded April 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2015</t>
+  </si>
+  <si>
+    <t>On a recent trip to the area, we stayed five nights at the TownePlace Suites and were very pleased.  The room was clean, the breakfast was above average and the value for the price was certainly very good.  Every experience with a hotel employee was very good.  I would not hesitate to recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r258814815-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>258814815</t>
+  </si>
+  <si>
+    <t>03/10/2015</t>
+  </si>
+  <si>
+    <t>Clean and nice</t>
+  </si>
+  <si>
+    <t>The hotel is 3 stories high, and we stayed on the 3rd floor.The lobby and the breakfast area is very simple and clean.The room was ok. I stayed in the studio room, which was good enough for 2 people.The breakfast is free. WIFI is free.There is TwinPeaks restaurant next door in case you get hungry at night.There is a small convenience shop but they do not sell beer yet.There is a small pool and decent fitness area, which I didn't have a chance to use.MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded March 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is 3 stories high, and we stayed on the 3rd floor.The lobby and the breakfast area is very simple and clean.The room was ok. I stayed in the studio room, which was good enough for 2 people.The breakfast is free. WIFI is free.There is TwinPeaks restaurant next door in case you get hungry at night.There is a small convenience shop but they do not sell beer yet.There is a small pool and decent fitness area, which I didn't have a chance to use.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r251720014-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>251720014</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>Great place and Friendly Staff-Good location, too!</t>
+  </si>
+  <si>
+    <t>We stayed 8 nights and arrived on Christmas day. Christopher and Brian,were both at the desk and very pleasant even though they were stuck working on a major Holiday. 
+Brian reassured us he was there until 11 pm and just let him know if we needed anything. Chris was very sweet and seemed genuinely interested in pleasing people. All Staff were Friendly and pleasant  and Head Housekeeper (Carol from Iowa?...) was a real gem. She was a true people person as was Chris at the Desk.
+The Suites are undergoing renovations which were even taking place on Christmas day(!). .  The only complaint I could  possibly have was the Sofa bed was not very comfortable and mattress was very poor.  (Our 14 year old did fine on  it, but I wouldn't have been able to sleep on it..) I was told these are being replaced and that the facility is now 6 years old and the Sofas were original.
+Our room had everything we could have wanted (once I realized the sticky closet door opened).We had lots of room for 4 Suitcases, coats and plenty of hangers. The kitchen was very adequate but had very dim lighting. (Maybe one or two recessed lights above the Stove area would help?...) The desk area, however, did have a very bright light. The circuit for the desk and kitchen lights were the same and it would have been nice to have turned on...We stayed 8 nights and arrived on Christmas day. Christopher and Brian,were both at the desk and very pleasant even though they were stuck working on a major Holiday. Brian reassured us he was there until 11 pm and just let him know if we needed anything. Chris was very sweet and seemed genuinely interested in pleasing people. All Staff were Friendly and pleasant  and Head Housekeeper (Carol from Iowa?...) was a real gem. She was a true people person as was Chris at the Desk.The Suites are undergoing renovations which were even taking place on Christmas day(!). .  The only complaint I could  possibly have was the Sofa bed was not very comfortable and mattress was very poor.  (Our 14 year old did fine on  it, but I wouldn't have been able to sleep on it..) I was told these are being replaced and that the facility is now 6 years old and the Sofas were original.Our room had everything we could have wanted (once I realized the sticky closet door opened).We had lots of room for 4 Suitcases, coats and plenty of hangers. The kitchen was very adequate but had very dim lighting. (Maybe one or two recessed lights above the Stove area would help?...) The desk area, however, did have a very bright light. The circuit for the desk and kitchen lights were the same and it would have been nice to have turned on just the softer kitchen light later in the evening.  We did ask for extra pillows and a fitted sheet for the Sofa bed and these requests were  met without issue. Housekeeping Staff provided plenty of clean linens daily. Our toilet did back up once and Staff provided us a plunger and no further incidents with that.The Bathroom was fairly impressive as hotel baths go, I LOVED the super long, wide shelf above the sink and under the mirror. we ladies usually bring a lot of toiletries and there was room for everything! Ladies, forget dragging the big hair dryer with-it's here and trust this once Stylist,it's powerful! We did have a thermostat that was a little weird-it ran hotter than stated temp and once we figured that out, we just adjusted accordingly. Due to time of year and cooler weather,  didn't get  to try out the Pool, but it looked nice and clean. The kitchen is supplied with a small bottle of liquid dish soap and powdered  dish washing detergent, so don't bring any.. (Costco and Sam's club are nearby). Dishes are set for 4 as are utensils.Once we figured out the way the roads are built in Texas, we were fine, but had read prior reviews, so knew we had to pass the hotel by about a half mile to do a U turn to get to the correct side of the road. The Woodlands Mall is nearby and lots of shopping as well-Take the Back way-don't go out the front of the Hotel-go out the back way and turn left-it'll bring you to the Mall without all the traffic. (and not having to go out of your way to get to the hotel with the weird roads) Breakfast was more than expected. Plan on Scrambled Eggs, Cheese Omelettes, Bacon, Sausage(patties and  links), Hot oatmeal, Cold cereals, Potatoes,Toast,  Bagels, Juice, YUMMY Coffee with 6 different flavored creamers as well as Liquid Syrups, Teas and Milk, and FRESH FRUIT and Yogurts, rotated daily so you get something different offered each day. More than adequate comfortable lobby with Big screen TV,The Houston chronicle and USA Today papers. While we did not eat Dinner here, it was offered on Mondays, Tuesdays and Wednesdays and is included in the room rate. (We did however, go grab some cans of pop). It looked adequate and I recall  Lasagna with Garlic bread and Salad as  one offering. We had Friends we were visiting, so were out to eat most evenings.The Fitness Center had a "Out of order"  sign in place the entire time we were there,  yet it appeared to be in working order. (People were in there using the equipment?) King sized Bed was comfortable, The only issue I had was with the pillows. With my Bad Neck, I found most pillows very too soft and i did awaken many times holding my Neck. I did not ask the Desk if they had any firmer pillows, but am seeking to find a travel  size  memory foam contour pillow since it may just be me- as it seems I have this problem at every hotel I stay at.... Overall, a great place to stay and i would highly recommend it! P.S. Coin operated Washer and Dryer are on 2  nd floor..MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Sagar P, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded January 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2015</t>
+  </si>
+  <si>
+    <t>We stayed 8 nights and arrived on Christmas day. Christopher and Brian,were both at the desk and very pleasant even though they were stuck working on a major Holiday. 
+Brian reassured us he was there until 11 pm and just let him know if we needed anything. Chris was very sweet and seemed genuinely interested in pleasing people. All Staff were Friendly and pleasant  and Head Housekeeper (Carol from Iowa?...) was a real gem. She was a true people person as was Chris at the Desk.
+The Suites are undergoing renovations which were even taking place on Christmas day(!). .  The only complaint I could  possibly have was the Sofa bed was not very comfortable and mattress was very poor.  (Our 14 year old did fine on  it, but I wouldn't have been able to sleep on it..) I was told these are being replaced and that the facility is now 6 years old and the Sofas were original.
+Our room had everything we could have wanted (once I realized the sticky closet door opened).We had lots of room for 4 Suitcases, coats and plenty of hangers. The kitchen was very adequate but had very dim lighting. (Maybe one or two recessed lights above the Stove area would help?...) The desk area, however, did have a very bright light. The circuit for the desk and kitchen lights were the same and it would have been nice to have turned on...We stayed 8 nights and arrived on Christmas day. Christopher and Brian,were both at the desk and very pleasant even though they were stuck working on a major Holiday. Brian reassured us he was there until 11 pm and just let him know if we needed anything. Chris was very sweet and seemed genuinely interested in pleasing people. All Staff were Friendly and pleasant  and Head Housekeeper (Carol from Iowa?...) was a real gem. She was a true people person as was Chris at the Desk.The Suites are undergoing renovations which were even taking place on Christmas day(!). .  The only complaint I could  possibly have was the Sofa bed was not very comfortable and mattress was very poor.  (Our 14 year old did fine on  it, but I wouldn't have been able to sleep on it..) I was told these are being replaced and that the facility is now 6 years old and the Sofas were original.Our room had everything we could have wanted (once I realized the sticky closet door opened).We had lots of room for 4 Suitcases, coats and plenty of hangers. The kitchen was very adequate but had very dim lighting. (Maybe one or two recessed lights above the Stove area would help?...) The desk area, however, did have a very bright light. The circuit for the desk and kitchen lights were the same and it would have been nice to have turned on just the softer kitchen light later in the evening.  We did ask for extra pillows and a fitted sheet for the Sofa bed and these requests were  met without issue. Housekeeping Staff provided plenty of clean linens daily. Our toilet did back up once and Staff provided us a plunger and no further incidents with that.The Bathroom was fairly impressive as hotel baths go, I LOVED the super long, wide shelf above the sink and under the mirror. we ladies usually bring a lot of toiletries and there was room for everything! Ladies, forget dragging the big hair dryer with-it's here and trust this once Stylist,it's powerful! We did have a thermostat that was a little weird-it ran hotter than stated temp and once we figured that out, we just adjusted accordingly. Due to time of year and cooler weather,  didn't get  to try out the Pool, but it looked nice and clean. The kitchen is supplied with a small bottle of liquid dish soap and powdered  dish washing detergent, so don't bring any.. (Costco and Sam's club are nearby). Dishes are set for 4 as are utensils.Once we figured out the way the roads are built in Texas, we were fine, but had read prior reviews, so knew we had to pass the hotel by about a half mile to do a U turn to get to the correct side of the road. The Woodlands Mall is nearby and lots of shopping as well-Take the Back way-don't go out the front of the Hotel-go out the back way and turn left-it'll bring you to the Mall without all the traffic. (and not having to go out of your way to get to the hotel with the weird roads) Breakfast was more than expected. Plan on Scrambled Eggs, Cheese Omelettes, Bacon, Sausage(patties and  links), Hot oatmeal, Cold cereals, Potatoes,Toast,  Bagels, Juice, YUMMY Coffee with 6 different flavored creamers as well as Liquid Syrups, Teas and Milk, and FRESH FRUIT and Yogurts, rotated daily so you get something different offered each day. More than adequate comfortable lobby with Big screen TV,The Houston chronicle and USA Today papers. While we did not eat Dinner here, it was offered on Mondays, Tuesdays and Wednesdays and is included in the room rate. (We did however, go grab some cans of pop). It looked adequate and I recall  Lasagna with Garlic bread and Salad as  one offering. We had Friends we were visiting, so were out to eat most evenings.The Fitness Center had a "Out of order"  sign in place the entire time we were there,  yet it appeared to be in working order. (People were in there using the equipment?) King sized Bed was comfortable, The only issue I had was with the pillows. With my Bad Neck, I found most pillows very too soft and i did awaken many times holding my Neck. I did not ask the Desk if they had any firmer pillows, but am seeking to find a travel  size  memory foam contour pillow since it may just be me- as it seems I have this problem at every hotel I stay at.... Overall, a great place to stay and i would highly recommend it! P.S. Coin operated Washer and Dryer are on 2  nd floor..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r248287750-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>248287750</t>
+  </si>
+  <si>
+    <t>01/08/2015</t>
+  </si>
+  <si>
+    <t>Nice quiet friendly</t>
+  </si>
+  <si>
+    <t>Nice rooms - not as nice as a suite but very nice still. Toilets have seat warmers, which was a little surprising lol. Good breakfast, nice quiet location. Have stayed here twice and will be my hotel of choice in the woodlands for comfort, quiet, price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sagar P, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded January 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2015</t>
+  </si>
+  <si>
+    <t>Nice rooms - not as nice as a suite but very nice still. Toilets have seat warmers, which was a little surprising lol. Good breakfast, nice quiet location. Have stayed here twice and will be my hotel of choice in the woodlands for comfort, quiet, price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r221696754-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>221696754</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>Good Bang for Your Buck</t>
+  </si>
+  <si>
+    <t>Good value if you have an extended stay in the area. Small but good gym and staff is pro-active and friendly. Rooms are always clean and hotel has good laundry service. Internet is adequate and room appliances’ &amp; furnishings make staying in room to work covenant. The only complaint would be the road construction being carried out on the exit ramp on I-45 exiting to hotel. Traffic backing up is a real problem. I can recommend this hotel for the business traveler. ZieMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded August 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2014</t>
+  </si>
+  <si>
+    <t>Good value if you have an extended stay in the area. Small but good gym and staff is pro-active and friendly. Rooms are always clean and hotel has good laundry service. Internet is adequate and room appliances’ &amp; furnishings make staying in room to work covenant. The only complaint would be the road construction being carried out on the exit ramp on I-45 exiting to hotel. Traffic backing up is a real problem. I can recommend this hotel for the business traveler. ZieMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r207041121-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>207041121</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>Great value and excellent staff!! Stayed for a night for a concert at Cynthia Woods Pavillion. Free shuttle to the venue and an easy cab ride home.   Friendliest staff I've ever encountered at a hotel. Very clean and a free hot breakfast..... I will definitely recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Mike T, Task Force Manager MCR Development at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Great value and excellent staff!! Stayed for a night for a concert at Cynthia Woods Pavillion. Free shuttle to the venue and an easy cab ride home.   Friendliest staff I've ever encountered at a hotel. Very clean and a free hot breakfast..... I will definitely recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r202402268-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>202402268</t>
+  </si>
+  <si>
+    <t>04/23/2014</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Very satisfied. Friendly helpful staff. Great value. Room was comfortable and clean. Definately would stay again.  Great location and easy to find. Hard to find such a nice hotel for that price any more. MoreShow less</t>
+  </si>
+  <si>
+    <t>Mike T, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded April 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2014</t>
+  </si>
+  <si>
+    <t>Very satisfied. Friendly helpful staff. Great value. Room was comfortable and clean. Definately would stay again.  Great location and easy to find. Hard to find such a nice hotel for that price any more. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r199178451-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>199178451</t>
+  </si>
+  <si>
+    <t>03/29/2014</t>
+  </si>
+  <si>
+    <t>Comforts of Home</t>
+  </si>
+  <si>
+    <t>Great location -near the woodlands- and reasonably priced. Wonderful breakfast- eggs, sausage, fruit, oatmeal. In the evening fruit and coffee and cookies are provided. Your room has a stove top, full refrigerator and microwave as well as cookware. Beds are comfortable and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Mike T, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded March 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2014</t>
+  </si>
+  <si>
+    <t>Great location -near the woodlands- and reasonably priced. Wonderful breakfast- eggs, sausage, fruit, oatmeal. In the evening fruit and coffee and cookies are provided. Your room has a stove top, full refrigerator and microwave as well as cookware. Beds are comfortable and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r193590366-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>193590366</t>
+  </si>
+  <si>
+    <t>02/09/2014</t>
+  </si>
+  <si>
+    <t>very good experience</t>
+  </si>
+  <si>
+    <t>Our stay was very pleasant-all staff from guest register to cleaning to food service were friendly and helpful. Room was large, bed was comfortable, and every amenity was provided. I was somewhat apprehensive when a saw a negative comment, but my experience was completely different. Either there has been some extensive renovation done very recently, or someone just had a bad day. Nothing at all in our room or experience that any reasonable person could complain about, in fact, it was much better than places I have paid much more for. Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Mike T, General Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded February 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2014</t>
+  </si>
+  <si>
+    <t>Our stay was very pleasant-all staff from guest register to cleaning to food service were friendly and helpful. Room was large, bed was comfortable, and every amenity was provided. I was somewhat apprehensive when a saw a negative comment, but my experience was completely different. Either there has been some extensive renovation done very recently, or someone just had a bad day. Nothing at all in our room or experience that any reasonable person could complain about, in fact, it was much better than places I have paid much more for. Highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r189796154-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>189796154</t>
+  </si>
+  <si>
+    <t>01/05/2014</t>
+  </si>
+  <si>
+    <t>Average Marriott long stay hotel.</t>
+  </si>
+  <si>
+    <t>This is my second stay at this hotel. I always stay here when I come down to The Laser Spine Institute. I like to stay here because it is a decent price for a long stay hotel in this area. There are some local restaurants within walking distance like The Outback and Twin Peaks. There is also a bank and ATM very close if needed. I am paying $118/night as part of a medical rate. My room has a full size refrigerator, microwave, oven top, dishwasher, coffee maker, iron, ironing board, work desk, flat screen TV, king size bed, couch and full bathroom. It is a good setup for a long stay in needed. The hotel offers an exercise room with (2) treadmills, (1) elliptical machine, (1) stationary bike and some small free weight dumbbells. They offer a buffet style breakfast every morning and dinner Monday through Wednesday. There is an outdoor swimming pool as well. It is a fairly quiet hotel and I sleep well here. They also offer a shuttle van to take you anywhere within The Woodlands area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Mike T, General Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded January 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2014</t>
+  </si>
+  <si>
+    <t>This is my second stay at this hotel. I always stay here when I come down to The Laser Spine Institute. I like to stay here because it is a decent price for a long stay hotel in this area. There are some local restaurants within walking distance like The Outback and Twin Peaks. There is also a bank and ATM very close if needed. I am paying $118/night as part of a medical rate. My room has a full size refrigerator, microwave, oven top, dishwasher, coffee maker, iron, ironing board, work desk, flat screen TV, king size bed, couch and full bathroom. It is a good setup for a long stay in needed. The hotel offers an exercise room with (2) treadmills, (1) elliptical machine, (1) stationary bike and some small free weight dumbbells. They offer a buffet style breakfast every morning and dinner Monday through Wednesday. There is an outdoor swimming pool as well. It is a fairly quiet hotel and I sleep well here. They also offer a shuttle van to take you anywhere within The Woodlands area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r187576870-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>187576870</t>
+  </si>
+  <si>
+    <t>12/13/2013</t>
+  </si>
+  <si>
+    <t>Yuck!</t>
+  </si>
+  <si>
+    <t>As most should know this line of Marriotts is designed for long-term stays although I stayed there overnight for a business trip. I was amazed that for a Marriott property (and I've stayed at dozens) how cheap this place felt. The heater smelled (#320), the toilet ran, the furniture was out of date and worn and worst of all, the sheets must have been 30 years old, very thin and poor quality. Yes, it is convenient to a lot of things, that's why I picked it in the first place but next time, I'll drive a little further and stay someplace nicer. My recommendation for typical business travelers to avoid this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>As most should know this line of Marriotts is designed for long-term stays although I stayed there overnight for a business trip. I was amazed that for a Marriott property (and I've stayed at dozens) how cheap this place felt. The heater smelled (#320), the toilet ran, the furniture was out of date and worn and worst of all, the sheets must have been 30 years old, very thin and poor quality. Yes, it is convenient to a lot of things, that's why I picked it in the first place but next time, I'll drive a little further and stay someplace nicer. My recommendation for typical business travelers to avoid this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r172682029-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>172682029</t>
+  </si>
+  <si>
+    <t>08/17/2013</t>
+  </si>
+  <si>
+    <t>Predictable</t>
+  </si>
+  <si>
+    <t>The location is why I chose this hotel.  For my business trip it was central to the locations I was visiting.  Large comfortable room met my needs but the air conditioning unit was very loud.  It was 100 degrees during the daytime, so I couldn't do without it.  Breakfast buffet good.  Hotel was clean and staff were friendly.  Each time I stay at a Marriott suites hotel though I wonder why they cannot get their sheets on the bed more comfortable.  They always seem to wrinkle up during the night and I find myself having to try to straighten them out frequently.  Makes for not the most comfortable sleep.  Would stay again for the convenience, and put up with the sheets.Very convenient to the Woodlands restaurants.  Outback restaurant walking distance from the hotel, for others, a car is needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>The location is why I chose this hotel.  For my business trip it was central to the locations I was visiting.  Large comfortable room met my needs but the air conditioning unit was very loud.  It was 100 degrees during the daytime, so I couldn't do without it.  Breakfast buffet good.  Hotel was clean and staff were friendly.  Each time I stay at a Marriott suites hotel though I wonder why they cannot get their sheets on the bed more comfortable.  They always seem to wrinkle up during the night and I find myself having to try to straighten them out frequently.  Makes for not the most comfortable sleep.  Would stay again for the convenience, and put up with the sheets.Very convenient to the Woodlands restaurants.  Outback restaurant walking distance from the hotel, for others, a car is needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r168697711-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>168697711</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>Good place to stay in Woodlands</t>
+  </si>
+  <si>
+    <t>Stayed here for the first time due to having business in the Woodlands for 5 days. It has a bit of a motel feel to it, but honestly this hotel is better than some 4-star hotels I stayed at in Europe. It's clean, homely, nice breakfast, nice pool, ok gym (small) and great friendly staff! The breakfast is served on plastic plates, but taste is fine. Smoking anywhere outside. I slept like a baby in their comfy beds. All good, in other words.Driving tip: if you have gps troubles and don't like the ride-along, take the backroad, Grogans Mills road, to get you around the Woodlands. It won't show up on your gps but just turn left when you exit the hotel and you will get where you need to go anyway.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Amy L, General Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded July 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for the first time due to having business in the Woodlands for 5 days. It has a bit of a motel feel to it, but honestly this hotel is better than some 4-star hotels I stayed at in Europe. It's clean, homely, nice breakfast, nice pool, ok gym (small) and great friendly staff! The breakfast is served on plastic plates, but taste is fine. Smoking anywhere outside. I slept like a baby in their comfy beds. All good, in other words.Driving tip: if you have gps troubles and don't like the ride-along, take the backroad, Grogans Mills road, to get you around the Woodlands. It won't show up on your gps but just turn left when you exit the hotel and you will get where you need to go anyway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r167558675-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>167558675</t>
+  </si>
+  <si>
+    <t>07/14/2013</t>
+  </si>
+  <si>
+    <t>Trust your gps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A little tricky to get to, but overall this hotel hits the right spot in value. The rooms are very ample and have anything you might need, here we found the comfiest bed in our trip. The breakfast far is definitely a plus, the food is varied and tasty. We stayed here because it is so close to the woodlands pavilion, and it was pretty easy to love around from here. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r150953503-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>150953503</t>
+  </si>
+  <si>
+    <t>01/29/2013</t>
+  </si>
+  <si>
+    <t>Great location and facility</t>
+  </si>
+  <si>
+    <t>The breakfast was fantastic.  The quality and variety of food was outstanding.  We were there on a Sunday morning and they even had copies of the local Sunday paper.  We only spent one night there but wished it was more.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>The breakfast was fantastic.  The quality and variety of food was outstanding.  We were there on a Sunday morning and they even had copies of the local Sunday paper.  We only spent one night there but wished it was more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r149726834-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>149726834</t>
+  </si>
+  <si>
+    <t>01/15/2013</t>
+  </si>
+  <si>
+    <t>Good standard hotel</t>
+  </si>
+  <si>
+    <t>All in all a very average hotel I would say, nothing to fault as such but do not expect anything out of the ordinary. If you have stayed at a Residence Inn this is very similar so you know what you get.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>All in all a very average hotel I would say, nothing to fault as such but do not expect anything out of the ordinary. If you have stayed at a Residence Inn this is very similar so you know what you get.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r148329848-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>148329848</t>
+  </si>
+  <si>
+    <t>12/29/2012</t>
+  </si>
+  <si>
+    <t>hassles and no rest!</t>
+  </si>
+  <si>
+    <t>checkin using reward pts.. next morning CC charge hassles that required only Manager to correct. thankfully he did it without any hassles. employee gave us 2nd floor room tucked away in the corner with very loud guest. their kids went on and on all night and bright  early next morning in front of our door etc. no peace and quiet here. singles, couples, workers checkin without any kids. why not place away from the chaos upon request? woke up to find out CC charged!! LIVID   when we used PTS! just had bad 1 night due loud neighbors . matters made worse by the charge errors. credits to the professional manager  lol that came in on Saturday morning at decent hour before, we check out . he did the corrections FAST on the spot.  in front of the the employee that jacked things up in the first place. on the spot fast service so we had a good peaceful weekend. I'll call before returning to see if he is there next time to ensure things are done right from the start in quiet section of the hotel...exiti was blocked by several smokers refusing to move out the doorway. so we can get by and out of the property. awkward!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Amy L, General Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded February 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2013</t>
+  </si>
+  <si>
+    <t>checkin using reward pts.. next morning CC charge hassles that required only Manager to correct. thankfully he did it without any hassles. employee gave us 2nd floor room tucked away in the corner with very loud guest. their kids went on and on all night and bright  early next morning in front of our door etc. no peace and quiet here. singles, couples, workers checkin without any kids. why not place away from the chaos upon request? woke up to find out CC charged!! LIVID   when we used PTS! just had bad 1 night due loud neighbors . matters made worse by the charge errors. credits to the professional manager  lol that came in on Saturday morning at decent hour before, we check out . he did the corrections FAST on the spot.  in front of the the employee that jacked things up in the first place. on the spot fast service so we had a good peaceful weekend. I'll call before returning to see if he is there next time to ensure things are done right from the start in quiet section of the hotel...exiti was blocked by several smokers refusing to move out the doorway. so we can get by and out of the property. awkward!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r146268268-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>146268268</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>Very nice place close to Woodlands</t>
+  </si>
+  <si>
+    <t>I stayed here for 23 nights in October while working close by in the Woodlands area.  The hotel is very clean, has a great breakfast every day, and the staff could not be better.  The cost is reasonable and they have a free shuttle for stores and businesses within 5 miles.  I would have given this hotel 5 stars except for the room layout.  It is impossible to watch the TV (1/3 of screen blocked by the wall) from bed because the TV is at a right angle at facing the couch instead of facing the bed,  Watching the TV after long work days or relaxing on the weekend was not fun.  If you are not interested in watching TV from the bed then this is a 5 star place.  The staff at the hotel was extremely helpful and took care of all questions and requests immediately.  The cleaning staff was also very friendly and accommodating to cleaning the room very early or very late depending on my needs.  I had a week where I worked from the hotel so I requested both early and late room cleaning.  My room on the 3rd floor was very clean, quiet, and large with a very big work desk.  I will definitely stay here again if I work in the area in the future.  They also have free dinner on weeknights M-Th but I used the kitchenette in my room.  I highly recommend...I stayed here for 23 nights in October while working close by in the Woodlands area.  The hotel is very clean, has a great breakfast every day, and the staff could not be better.  The cost is reasonable and they have a free shuttle for stores and businesses within 5 miles.  I would have given this hotel 5 stars except for the room layout.  It is impossible to watch the TV (1/3 of screen blocked by the wall) from bed because the TV is at a right angle at facing the couch instead of facing the bed,  Watching the TV after long work days or relaxing on the weekend was not fun.  If you are not interested in watching TV from the bed then this is a 5 star place.  The staff at the hotel was extremely helpful and took care of all questions and requests immediately.  The cleaning staff was also very friendly and accommodating to cleaning the room very early or very late depending on my needs.  I had a week where I worked from the hotel so I requested both early and late room cleaning.  My room on the 3rd floor was very clean, quiet, and large with a very big work desk.  I will definitely stay here again if I work in the area in the future.  They also have free dinner on weeknights M-Th but I used the kitchenette in my room.  I highly recommend this hotel to all business or casual travelers with the cleanliness and hotel staff service being the top two reasons.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for 23 nights in October while working close by in the Woodlands area.  The hotel is very clean, has a great breakfast every day, and the staff could not be better.  The cost is reasonable and they have a free shuttle for stores and businesses within 5 miles.  I would have given this hotel 5 stars except for the room layout.  It is impossible to watch the TV (1/3 of screen blocked by the wall) from bed because the TV is at a right angle at facing the couch instead of facing the bed,  Watching the TV after long work days or relaxing on the weekend was not fun.  If you are not interested in watching TV from the bed then this is a 5 star place.  The staff at the hotel was extremely helpful and took care of all questions and requests immediately.  The cleaning staff was also very friendly and accommodating to cleaning the room very early or very late depending on my needs.  I had a week where I worked from the hotel so I requested both early and late room cleaning.  My room on the 3rd floor was very clean, quiet, and large with a very big work desk.  I will definitely stay here again if I work in the area in the future.  They also have free dinner on weeknights M-Th but I used the kitchenette in my room.  I highly recommend...I stayed here for 23 nights in October while working close by in the Woodlands area.  The hotel is very clean, has a great breakfast every day, and the staff could not be better.  The cost is reasonable and they have a free shuttle for stores and businesses within 5 miles.  I would have given this hotel 5 stars except for the room layout.  It is impossible to watch the TV (1/3 of screen blocked by the wall) from bed because the TV is at a right angle at facing the couch instead of facing the bed,  Watching the TV after long work days or relaxing on the weekend was not fun.  If you are not interested in watching TV from the bed then this is a 5 star place.  The staff at the hotel was extremely helpful and took care of all questions and requests immediately.  The cleaning staff was also very friendly and accommodating to cleaning the room very early or very late depending on my needs.  I had a week where I worked from the hotel so I requested both early and late room cleaning.  My room on the 3rd floor was very clean, quiet, and large with a very big work desk.  I will definitely stay here again if I work in the area in the future.  They also have free dinner on weeknights M-Th but I used the kitchenette in my room.  I highly recommend this hotel to all business or casual travelers with the cleanliness and hotel staff service being the top two reasons.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r138323289-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>138323289</t>
+  </si>
+  <si>
+    <t>08/25/2012</t>
+  </si>
+  <si>
+    <t>Great home away from home</t>
+  </si>
+  <si>
+    <t>I stay here for business a month at a time. The staff is great and so are the accommodations.  The rooms are clean and up to date. Also is close to several restaurants and other activities.  If you are going to stay a short time or an extended amount of time,  I would definitely recommend here.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r133885452-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>133885452</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>I have stayed here a total of 3 times!  If you want a great place to stay with your pets this is the place to stay.  All 3 times I have stayed I have had my dog with me and he is 85 lbs.  and there is no weight limit like other hotels.  The staff is nice especially Ms. Stefanie that works the front desk.  Everyone greets you with smile and asks if there is something they can do for you!</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r121006830-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>121006830</t>
+  </si>
+  <si>
+    <t>11/24/2011</t>
+  </si>
+  <si>
+    <t>TownePlace offers much more than other hotels...</t>
+  </si>
+  <si>
+    <t>We stayed one night at this TownePlace Suites.  It was the night before Thanksgiving.  To our surprise, this hotel serves breakfast everyday and an evening happy hour/snack on M-T-W.The "snack" on the Wednesday that we visited was sliced white turkey with gravy,  mashed potatoes, salad with pecan or pumpkin pie for dessert.  The beverages were tea, soda, wine , beer.  The breakfast in the morning was eggs, potatoes, sausage, french toast sticks, waffles, fruit, etc.   The room was very nice and had a patio by the beautiful pool area.  The pool area includes fountains, barbecue gril and an outdoor fireplace.  Each room includes a tiny kitchen including dishes, utensils, etc.  The wireless internet worked great, but alas, my Hotmail emails would not open.  I could see the inbox page but they would not open.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>We stayed one night at this TownePlace Suites.  It was the night before Thanksgiving.  To our surprise, this hotel serves breakfast everyday and an evening happy hour/snack on M-T-W.The "snack" on the Wednesday that we visited was sliced white turkey with gravy,  mashed potatoes, salad with pecan or pumpkin pie for dessert.  The beverages were tea, soda, wine , beer.  The breakfast in the morning was eggs, potatoes, sausage, french toast sticks, waffles, fruit, etc.   The room was very nice and had a patio by the beautiful pool area.  The pool area includes fountains, barbecue gril and an outdoor fireplace.  Each room includes a tiny kitchen including dishes, utensils, etc.  The wireless internet worked great, but alas, my Hotmail emails would not open.  I could see the inbox page but they would not open.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r120097663-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>120097663</t>
+  </si>
+  <si>
+    <t>11/02/2011</t>
+  </si>
+  <si>
+    <t>"Super Value for a 3-Star Hotel in Woodlands Area"</t>
+  </si>
+  <si>
+    <t>Was in the area for a wedding the weekend of Oct 2.  Got great rate for the wedding party -- $79 / night for a King suite + sleeper sofa.  (I think this is about the AAA rate).   I usually go Hilton, but this was a very good value for a Marriott property. Room was very comfy, except the fold-out bed but the kids don't complain -- had fully equiped kitchen with utensils.  Complementary full breakfast buffet was above average, typical for Marriott.  Very nice pool area with plenty of furniture, a large gas grill plus a built in fireplace -- we ended up hanging out there for my brother's "bachelor" party.  HARD right off Southbound I-45, exit 77 or take exit 79 and take it more casual on the frontage road.  Would consider this a good value up to $90 / night, especially if you can take full advantage of anemnities (pool, gathering area, fitness center).  Has free WiFi, very friendly staff, pretty new property (maybe two years old ?).  If there are more Marriott properites around like this at this price point I'll have to say farewell to my allegiance to Hilton.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Was in the area for a wedding the weekend of Oct 2.  Got great rate for the wedding party -- $79 / night for a King suite + sleeper sofa.  (I think this is about the AAA rate).   I usually go Hilton, but this was a very good value for a Marriott property. Room was very comfy, except the fold-out bed but the kids don't complain -- had fully equiped kitchen with utensils.  Complementary full breakfast buffet was above average, typical for Marriott.  Very nice pool area with plenty of furniture, a large gas grill plus a built in fireplace -- we ended up hanging out there for my brother's "bachelor" party.  HARD right off Southbound I-45, exit 77 or take exit 79 and take it more casual on the frontage road.  Would consider this a good value up to $90 / night, especially if you can take full advantage of anemnities (pool, gathering area, fitness center).  Has free WiFi, very friendly staff, pretty new property (maybe two years old ?).  If there are more Marriott properites around like this at this price point I'll have to say farewell to my allegiance to Hilton.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r115595540-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>115595540</t>
+  </si>
+  <si>
+    <t>07/20/2011</t>
+  </si>
+  <si>
+    <t>Good for a weekend trip</t>
+  </si>
+  <si>
+    <t>We stayed here for a wedding - it was not one of the group hotels but after reading the reviews of the group hotel, I decided to stay here instead.It was a typical Towneplace Suites, but that meant clean and good sized rooms.  Even the bathroom was fairly large.  Breakfast was just ok, but the room and proximity to the mall more than made up for it.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r104538890-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>104538890</t>
+  </si>
+  <si>
+    <t>04/18/2011</t>
+  </si>
+  <si>
+    <t>Very nice!</t>
+  </si>
+  <si>
+    <t>A very good stop for a one-night stay in the Woodlands area. Easy and quick in-and-out, great staff, a VERY good hot breakfast. The room was very modern, large, a thermostat that really worked, a variety of pillows on the bed to choose from. The full sized frig was a nice touch, along with the flat screen. Nice and quiet, set a couple hundred yards back from the freeway. I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r97728809-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>97728809</t>
+  </si>
+  <si>
+    <t>02/23/2011</t>
+  </si>
+  <si>
+    <t>Where is my favorite front desk agents?</t>
+  </si>
+  <si>
+    <t>I stay in this hotel every November and work on a major project for my company Conoco Philips. When I check in I'm not welcomed bck or greeted with that warm feeling like I  use to when LuAnn and Brittney and Wesley use to work there. I want them bck. To go to an extended drY property I except to be remembered not by name but that I am welcomed. I don't know what has happened to this property but since Amy the new GM the hotel isn't the same. I am never going bck and I will take my friends with me. Bring bck your great staff or the hotel will not survive!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay in this hotel every November and work on a major project for my company Conoco Philips. When I check in I'm not welcomed bck or greeted with that warm feeling like I  use to when LuAnn and Brittney and Wesley use to work there. I want them bck. To go to an extended drY property I except to be remembered not by name but that I am welcomed. I don't know what has happened to this property but since Amy the new GM the hotel isn't the same. I am never going bck and I will take my friends with me. Bring bck your great staff or the hotel will not survive!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r94726116-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>94726116</t>
+  </si>
+  <si>
+    <t>01/28/2011</t>
+  </si>
+  <si>
+    <t>Excellent hotel for business travelers</t>
+  </si>
+  <si>
+    <t>Clean, friendly staff, good workspace in rooms, enjoyed having a kitchenette in room. Nice stay, definitely will return!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r50872167-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>50872167</t>
+  </si>
+  <si>
+    <t>12/08/2009</t>
+  </si>
+  <si>
+    <t>Top Notch Staff Who Lives and Breathes Service</t>
+  </si>
+  <si>
+    <t>I have stayed in a number of hotels.   This group led by the evening manager Russ had the most incredible staff.  Lu Ann and the security guard Vince had the most amazing service. As an example, one evening when calling down, he asked if I wanted some fresh cookies.  Of course the answer was yes and they not only handed me fresh cookies, but cold milk.  When our soccer girls came back from a late game, Lu Ann did the exact same. It really made for a great end to a long day.  The rooms were comfortable, and the HD channels were a nice plus.  The only weakness was the housekeeping which did a marginal job at best.  The location is great next to restaurants a large mall just to the south.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed in a number of hotels.   This group led by the evening manager Russ had the most incredible staff.  Lu Ann and the security guard Vince had the most amazing service. As an example, one evening when calling down, he asked if I wanted some fresh cookies.  Of course the answer was yes and they not only handed me fresh cookies, but cold milk.  When our soccer girls came back from a late game, Lu Ann did the exact same. It really made for a great end to a long day.  The rooms were comfortable, and the HD channels were a nice plus.  The only weakness was the housekeeping which did a marginal job at best.  The location is great next to restaurants a large mall just to the south.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r33952337-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>33952337</t>
+  </si>
+  <si>
+    <t>07/05/2009</t>
+  </si>
+  <si>
+    <t>Nice amenities, pleasurable stay</t>
+  </si>
+  <si>
+    <t>We were very impressed with the in-room amenities of the hotel during our 4-night stay. The outdoor areas were also very nice. The free hot breakfast and M-T-W dinner and manager's reception add to the value. The business center's print system was down more often than not, and the clothes dryers seemed not to work very well. Hopefully, that will improve. There ARE five rooms with patios that face the pool. When we called and asked if any such rooms existed, we were told they did not. That was the most disappointing thing to us. Nonetheless, we would stay there again.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r26758444-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>26758444</t>
+  </si>
+  <si>
+    <t>03/24/2009</t>
+  </si>
+  <si>
+    <t>New hotel in The Woodlands, TX</t>
+  </si>
+  <si>
+    <t>We stayed at the Towneplace Suites (by Marriott) in The Woodlands, TX for 3 nights.   The hotel is new and everything was clean, fresh with comfortable beds.  The hotel is located within a mile to The Woodlands with its many shopping and dining choices.   They had a complimentary breakfast but we did not eat at the hotel so I can't comment on that.  The hotel was beautiful and they had a very nice outdoor pool.  The room had a small kitchenette (refrigerator, cooktop, microwave, sink) if you are interested in cooking.    We were there for the weekend and paid the weekend rate of $109.00 which is the same rate charged by the Residence Inn up the street.   The staff was friendly and helpful and we will definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>We stayed at the Towneplace Suites (by Marriott) in The Woodlands, TX for 3 nights.   The hotel is new and everything was clean, fresh with comfortable beds.  The hotel is located within a mile to The Woodlands with its many shopping and dining choices.   They had a complimentary breakfast but we did not eat at the hotel so I can't comment on that.  The hotel was beautiful and they had a very nice outdoor pool.  The room had a small kitchenette (refrigerator, cooktop, microwave, sink) if you are interested in cooking.    We were there for the weekend and paid the weekend rate of $109.00 which is the same rate charged by the Residence Inn up the street.   The staff was friendly and helpful and we will definitely stay there again.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2005,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2037,3973 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>101</v>
+      </c>
+      <c r="X7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O12" t="s">
+        <v>144</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>145</v>
+      </c>
+      <c r="X12" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" t="s">
+        <v>152</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>153</v>
+      </c>
+      <c r="O13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>154</v>
+      </c>
+      <c r="X13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" t="s">
+        <v>159</v>
+      </c>
+      <c r="K14" t="s">
+        <v>160</v>
+      </c>
+      <c r="L14" t="s">
+        <v>161</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>162</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>163</v>
+      </c>
+      <c r="X14" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>163</v>
+      </c>
+      <c r="X15" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>176</v>
+      </c>
+      <c r="O16" t="s">
+        <v>144</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>177</v>
+      </c>
+      <c r="X16" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>185</v>
+      </c>
+      <c r="O17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>186</v>
+      </c>
+      <c r="X17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>176</v>
+      </c>
+      <c r="O18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>194</v>
+      </c>
+      <c r="X18" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J19" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>185</v>
+      </c>
+      <c r="O19" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>202</v>
+      </c>
+      <c r="X19" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>206</v>
+      </c>
+      <c r="J20" t="s">
+        <v>207</v>
+      </c>
+      <c r="K20" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s">
+        <v>209</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>185</v>
+      </c>
+      <c r="O20" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>210</v>
+      </c>
+      <c r="X20" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>218</v>
+      </c>
+      <c r="O21" t="s">
+        <v>144</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>219</v>
+      </c>
+      <c r="X21" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>223</v>
+      </c>
+      <c r="J22" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22" t="s">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s">
+        <v>226</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>227</v>
+      </c>
+      <c r="X22" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>230</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>231</v>
+      </c>
+      <c r="J23" t="s">
+        <v>232</v>
+      </c>
+      <c r="K23" t="s">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s">
+        <v>234</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>235</v>
+      </c>
+      <c r="O23" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>236</v>
+      </c>
+      <c r="X23" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>240</v>
+      </c>
+      <c r="J24" t="s">
+        <v>241</v>
+      </c>
+      <c r="K24" t="s">
+        <v>242</v>
+      </c>
+      <c r="L24" t="s">
+        <v>243</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>235</v>
+      </c>
+      <c r="O24" t="s">
+        <v>91</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>244</v>
+      </c>
+      <c r="X24" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>248</v>
+      </c>
+      <c r="J25" t="s">
+        <v>249</v>
+      </c>
+      <c r="K25" t="s">
+        <v>250</v>
+      </c>
+      <c r="L25" t="s">
+        <v>251</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>252</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>253</v>
+      </c>
+      <c r="X25" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>256</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>257</v>
+      </c>
+      <c r="J26" t="s">
+        <v>258</v>
+      </c>
+      <c r="K26" t="s">
+        <v>259</v>
+      </c>
+      <c r="L26" t="s">
+        <v>260</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>261</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>262</v>
+      </c>
+      <c r="X26" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>265</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>266</v>
+      </c>
+      <c r="J27" t="s">
+        <v>267</v>
+      </c>
+      <c r="K27" t="s">
+        <v>268</v>
+      </c>
+      <c r="L27" t="s">
+        <v>269</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>270</v>
+      </c>
+      <c r="O27" t="s">
+        <v>91</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>271</v>
+      </c>
+      <c r="X27" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>274</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>275</v>
+      </c>
+      <c r="J28" t="s">
+        <v>276</v>
+      </c>
+      <c r="K28" t="s">
+        <v>277</v>
+      </c>
+      <c r="L28" t="s">
+        <v>278</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>279</v>
+      </c>
+      <c r="O28" t="s">
+        <v>91</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>280</v>
+      </c>
+      <c r="X28" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>283</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>284</v>
+      </c>
+      <c r="J29" t="s">
+        <v>285</v>
+      </c>
+      <c r="K29" t="s">
+        <v>286</v>
+      </c>
+      <c r="L29" t="s">
+        <v>287</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>288</v>
+      </c>
+      <c r="O29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>289</v>
+      </c>
+      <c r="X29" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>292</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>293</v>
+      </c>
+      <c r="J30" t="s">
+        <v>294</v>
+      </c>
+      <c r="K30" t="s">
+        <v>295</v>
+      </c>
+      <c r="L30" t="s">
+        <v>296</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>297</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>298</v>
+      </c>
+      <c r="X30" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>301</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>302</v>
+      </c>
+      <c r="J31" t="s">
+        <v>303</v>
+      </c>
+      <c r="K31" t="s">
+        <v>304</v>
+      </c>
+      <c r="L31" t="s">
+        <v>305</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>297</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>306</v>
+      </c>
+      <c r="X31" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>309</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>310</v>
+      </c>
+      <c r="J32" t="s">
+        <v>311</v>
+      </c>
+      <c r="K32" t="s">
+        <v>312</v>
+      </c>
+      <c r="L32" t="s">
+        <v>313</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>314</v>
+      </c>
+      <c r="O32" t="s">
+        <v>73</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>315</v>
+      </c>
+      <c r="X32" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>318</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>319</v>
+      </c>
+      <c r="J33" t="s">
+        <v>320</v>
+      </c>
+      <c r="K33" t="s">
+        <v>321</v>
+      </c>
+      <c r="L33" t="s">
+        <v>322</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>323</v>
+      </c>
+      <c r="O33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>324</v>
+      </c>
+      <c r="X33" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>327</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>328</v>
+      </c>
+      <c r="J34" t="s">
+        <v>329</v>
+      </c>
+      <c r="K34" t="s">
+        <v>330</v>
+      </c>
+      <c r="L34" t="s">
+        <v>331</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>323</v>
+      </c>
+      <c r="O34" t="s">
+        <v>73</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>332</v>
+      </c>
+      <c r="X34" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>335</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>336</v>
+      </c>
+      <c r="J35" t="s">
+        <v>337</v>
+      </c>
+      <c r="K35" t="s">
+        <v>338</v>
+      </c>
+      <c r="L35" t="s">
+        <v>339</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>340</v>
+      </c>
+      <c r="O35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>341</v>
+      </c>
+      <c r="X35" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>344</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>345</v>
+      </c>
+      <c r="J36" t="s">
+        <v>346</v>
+      </c>
+      <c r="K36" t="s">
+        <v>347</v>
+      </c>
+      <c r="L36" t="s">
+        <v>348</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>349</v>
+      </c>
+      <c r="X36" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>352</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>353</v>
+      </c>
+      <c r="J37" t="s">
+        <v>354</v>
+      </c>
+      <c r="K37" t="s">
+        <v>355</v>
+      </c>
+      <c r="L37" t="s">
+        <v>356</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>357</v>
+      </c>
+      <c r="O37" t="s">
+        <v>91</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>358</v>
+      </c>
+      <c r="X37" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>361</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>362</v>
+      </c>
+      <c r="J38" t="s">
+        <v>363</v>
+      </c>
+      <c r="K38" t="s">
+        <v>364</v>
+      </c>
+      <c r="L38" t="s">
+        <v>365</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>366</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>367</v>
+      </c>
+      <c r="X38" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>370</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>371</v>
+      </c>
+      <c r="J39" t="s">
+        <v>372</v>
+      </c>
+      <c r="K39" t="s">
+        <v>373</v>
+      </c>
+      <c r="L39" t="s">
+        <v>374</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>375</v>
+      </c>
+      <c r="X39" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>378</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>379</v>
+      </c>
+      <c r="J40" t="s">
+        <v>380</v>
+      </c>
+      <c r="K40" t="s">
+        <v>381</v>
+      </c>
+      <c r="L40" t="s">
+        <v>382</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>383</v>
+      </c>
+      <c r="O40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>384</v>
+      </c>
+      <c r="X40" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>387</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>388</v>
+      </c>
+      <c r="J41" t="s">
+        <v>389</v>
+      </c>
+      <c r="K41" t="s">
+        <v>390</v>
+      </c>
+      <c r="L41" t="s">
+        <v>391</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>392</v>
+      </c>
+      <c r="O41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>393</v>
+      </c>
+      <c r="X41" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>396</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>397</v>
+      </c>
+      <c r="J42" t="s">
+        <v>398</v>
+      </c>
+      <c r="K42" t="s">
+        <v>399</v>
+      </c>
+      <c r="L42" t="s">
+        <v>400</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>401</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>402</v>
+      </c>
+      <c r="X42" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>405</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>406</v>
+      </c>
+      <c r="J43" t="s">
+        <v>407</v>
+      </c>
+      <c r="K43" t="s">
+        <v>408</v>
+      </c>
+      <c r="L43" t="s">
+        <v>409</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>410</v>
+      </c>
+      <c r="O43" t="s">
+        <v>91</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>402</v>
+      </c>
+      <c r="X43" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>412</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>413</v>
+      </c>
+      <c r="J44" t="s">
+        <v>414</v>
+      </c>
+      <c r="K44" t="s">
+        <v>415</v>
+      </c>
+      <c r="L44" t="s">
+        <v>416</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>417</v>
+      </c>
+      <c r="O44" t="s">
+        <v>91</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>419</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>420</v>
+      </c>
+      <c r="J45" t="s">
+        <v>421</v>
+      </c>
+      <c r="K45" t="s">
+        <v>422</v>
+      </c>
+      <c r="L45" t="s">
+        <v>423</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>424</v>
+      </c>
+      <c r="O45" t="s">
+        <v>91</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>425</v>
+      </c>
+      <c r="X45" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>428</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>429</v>
+      </c>
+      <c r="J46" t="s">
+        <v>430</v>
+      </c>
+      <c r="K46" t="s">
+        <v>431</v>
+      </c>
+      <c r="L46" t="s">
+        <v>432</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>433</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>434</v>
+      </c>
+      <c r="J47" t="s">
+        <v>435</v>
+      </c>
+      <c r="K47" t="s">
+        <v>436</v>
+      </c>
+      <c r="L47" t="s">
+        <v>437</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>438</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>425</v>
+      </c>
+      <c r="X47" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>440</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>441</v>
+      </c>
+      <c r="J48" t="s">
+        <v>442</v>
+      </c>
+      <c r="K48" t="s">
+        <v>443</v>
+      </c>
+      <c r="L48" t="s">
+        <v>444</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>445</v>
+      </c>
+      <c r="O48" t="s">
+        <v>91</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>425</v>
+      </c>
+      <c r="X48" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>447</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>448</v>
+      </c>
+      <c r="J49" t="s">
+        <v>449</v>
+      </c>
+      <c r="K49" t="s">
+        <v>450</v>
+      </c>
+      <c r="L49" t="s">
+        <v>451</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>452</v>
+      </c>
+      <c r="O49" t="s">
+        <v>91</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>453</v>
+      </c>
+      <c r="X49" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>456</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>457</v>
+      </c>
+      <c r="J50" t="s">
+        <v>458</v>
+      </c>
+      <c r="K50" t="s">
+        <v>459</v>
+      </c>
+      <c r="L50" t="s">
+        <v>460</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>461</v>
+      </c>
+      <c r="O50" t="s">
+        <v>91</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>463</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>464</v>
+      </c>
+      <c r="J51" t="s">
+        <v>465</v>
+      </c>
+      <c r="K51" t="s">
+        <v>466</v>
+      </c>
+      <c r="L51" t="s">
+        <v>467</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>468</v>
+      </c>
+      <c r="O51" t="s">
+        <v>91</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>469</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>470</v>
+      </c>
+      <c r="J52" t="s">
+        <v>471</v>
+      </c>
+      <c r="K52" t="s">
+        <v>472</v>
+      </c>
+      <c r="L52" t="s">
+        <v>473</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>474</v>
+      </c>
+      <c r="O52" t="s">
+        <v>91</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>475</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>476</v>
+      </c>
+      <c r="J53" t="s">
+        <v>477</v>
+      </c>
+      <c r="K53" t="s">
+        <v>478</v>
+      </c>
+      <c r="L53" t="s">
+        <v>479</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>480</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>482</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>483</v>
+      </c>
+      <c r="J54" t="s">
+        <v>484</v>
+      </c>
+      <c r="K54" t="s">
+        <v>485</v>
+      </c>
+      <c r="L54" t="s">
+        <v>486</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>487</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>489</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>490</v>
+      </c>
+      <c r="J55" t="s">
+        <v>491</v>
+      </c>
+      <c r="K55" t="s">
+        <v>492</v>
+      </c>
+      <c r="L55" t="s">
+        <v>493</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>494</v>
+      </c>
+      <c r="O55" t="s">
+        <v>63</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>495</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>496</v>
+      </c>
+      <c r="J56" t="s">
+        <v>497</v>
+      </c>
+      <c r="K56" t="s">
+        <v>498</v>
+      </c>
+      <c r="L56" t="s">
+        <v>499</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>494</v>
+      </c>
+      <c r="O56" t="s">
+        <v>91</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>500</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>501</v>
+      </c>
+      <c r="J57" t="s">
+        <v>502</v>
+      </c>
+      <c r="K57" t="s">
+        <v>503</v>
+      </c>
+      <c r="L57" t="s">
+        <v>504</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>506</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>507</v>
+      </c>
+      <c r="J58" t="s">
+        <v>508</v>
+      </c>
+      <c r="K58" t="s">
+        <v>509</v>
+      </c>
+      <c r="L58" t="s">
+        <v>510</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>511</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>512</v>
+      </c>
+      <c r="J59" t="s">
+        <v>513</v>
+      </c>
+      <c r="K59" t="s">
+        <v>514</v>
+      </c>
+      <c r="L59" t="s">
+        <v>515</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>517</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>518</v>
+      </c>
+      <c r="J60" t="s">
+        <v>519</v>
+      </c>
+      <c r="K60" t="s">
+        <v>520</v>
+      </c>
+      <c r="L60" t="s">
+        <v>521</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>522</v>
+      </c>
+      <c r="O60" t="s">
+        <v>91</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>523</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>524</v>
+      </c>
+      <c r="J61" t="s">
+        <v>525</v>
+      </c>
+      <c r="K61" t="s">
+        <v>526</v>
+      </c>
+      <c r="L61" t="s">
+        <v>527</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>528</v>
+      </c>
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_661.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_661.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="843">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r589475444-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>1009393</t>
+  </si>
+  <si>
+    <t>1158825</t>
+  </si>
+  <si>
+    <t>589475444</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Very pleasant stay</t>
+  </si>
+  <si>
+    <t>The hotel is very nice and cosy. They have everything you might need if you re planning a long stay as I do. Additionally their shuttle service is a great help as moving around without a car is very hard here. I had a very nice stay and i loved happy hours! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded June 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2018</t>
+  </si>
+  <si>
+    <t>The hotel is very nice and cosy. They have everything you might need if you re planning a long stay as I do. Additionally their shuttle service is a great help as moving around without a car is very hard here. I had a very nice stay and i loved happy hours! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r584169845-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>584169845</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Great hotel; great location; great service</t>
+  </si>
+  <si>
+    <t>The hotel is conveniently located near the CISD Natatorium.  There is easy access to restaurants, shops, and Interstate 45.  Houston is only a short drive away.  The hotel is very clean, the staff is very friendly and the rooms are extremely comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded June 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2018</t>
+  </si>
+  <si>
+    <t>The hotel is conveniently located near the CISD Natatorium.  There is easy access to restaurants, shops, and Interstate 45.  Houston is only a short drive away.  The hotel is very clean, the staff is very friendly and the rooms are extremely comfortable.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r583359770-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
-    <t>1009393</t>
-  </si>
-  <si>
-    <t>1158825</t>
-  </si>
-  <si>
     <t>583359770</t>
   </si>
   <si>
@@ -177,9 +237,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded May 29, 2018</t>
   </si>
   <si>
@@ -249,6 +306,54 @@
     <t>Hotel itself is newer, room is pretty nice. Internet TV options (netflix, etc) are available. Breakfast is pretty standard, nothing to complain about. Location is good if you have a vehicle, about a 10 minute drive from the Woodlands shopping area/mall/waterway.  It's off the south feeder road so depending on where you're coming from or heading to, it can be a bit inconvenient. Free cookies at the front desk all day, and the cookies are very good. Service was great. They ran out of cookies one evening, and one of the front desk agents went out of her way to make sure I had cookies the next day. Would not hesitate to stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r569785220-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>569785220</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Good hotel in an overall view. Room is large enough and well equipped. Free food and drinks including beer 3 times a week is good but the food quality varies greatly. Outback and twin peaks are walking distance. Hotel has a nice pool, small basketball court and a very friendly staff. I would come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded April 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2018</t>
+  </si>
+  <si>
+    <t>Good hotel in an overall view. Room is large enough and well equipped. Free food and drinks including beer 3 times a week is good but the food quality varies greatly. Outback and twin peaks are walking distance. Hotel has a nice pool, small basketball court and a very friendly staff. I would come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r567430790-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>567430790</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>One night turned onto three</t>
+  </si>
+  <si>
+    <t>We stayed here because my mom's cousinwas staying there while her house got renovated. They hadn't seen each other in 60 years so it was a great opportunity. Everything was clean and the pool is heated to a comfortable 83°. My son ended up with a stomach virus, so we had to stay a third night to wait that out. They were very accommodating to us. Pur only complaint is that two out of three washing machines were put of order. That made it hard on us to get things washed when you are competing with other people staying at the hotel. I was pleased to have the kitchenette.MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here because my mom's cousinwas staying there while her house got renovated. They hadn't seen each other in 60 years so it was a great opportunity. Everything was clean and the pool is heated to a comfortable 83°. My son ended up with a stomach virus, so we had to stay a third night to wait that out. They were very accommodating to us. Pur only complaint is that two out of three washing machines were put of order. That made it hard on us to get things washed when you are competing with other people staying at the hotel. I was pleased to have the kitchenette.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r563252441-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -291,9 +396,6 @@
     <t>Everything about my stay was great. M-T-W 5-7pm they do free food and beer in the lobby. Location is good, shuttle service is fine, rooms are great. Nothing wrong with this place at all. Full kitchenette so you can prep your own meals.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded February 21, 2018</t>
   </si>
   <si>
@@ -330,6 +432,60 @@
     <t>Hubs and I came in for the night so we could relax before picking up our daughter at the airport early the next day.  This hotel is conveniently located near great restaurants, shopping, the Waterway, etc.  We were greeted warmly and given our choice of floors.  The room was spotless, spacious, and very comfortable.  Loved the king bed and slept like babies.  Breakfast had numerous choices including 3 kinds of eggs, bagels, toast, cereals, pork and turkey sausage, yogurt, juices, coffee with flavored syrups, oatmeal with toppings, and a waffle maker with sugar free and regular syrup.  We noticed they even had a gift wrapping station for guests!  Its obvious they pay great attention to detail and care about guests.  Every employee we crossed paths with was extremely friendly.  We will definitely stay here any time we are in the area. Loved it!  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r540795389-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>540795389</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Great people/Clean and modern rooms</t>
+  </si>
+  <si>
+    <t>Stayed at this property on more than a few occasions. They recently updated their Television programming and it is fantastic, a channel for everyone. The people are what keep me coming back, this television programming was a pleasent suprise. Maria, Judy, Richard and Patsy your the reason I stay there. Please keep up the great work.. This is the only place to stay while visiting Shenandoah - Conroe - The WoodlandsMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at this property on more than a few occasions. They recently updated their Television programming and it is fantastic, a channel for everyone. The people are what keep me coming back, this television programming was a pleasent suprise. Maria, Judy, Richard and Patsy your the reason I stay there. Please keep up the great work.. This is the only place to stay while visiting Shenandoah - Conroe - The WoodlandsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r538185550-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>538185550</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>Hair</t>
+  </si>
+  <si>
+    <t>Checked into room. Everything looked great at first glance. Noticed a bandaid tab near the bathroom trash. No big deal. Could happen to anyone. Got into the shower and noticed long black hair in the tub. No big deal. Could happen to anyone. Lifted my covers to get into bed. Long black hair on the sheet. Now I'm getting irritated. Picked up a pillow to fluff it, two long black hairs on it. Now I'm getting really concerned. Picked up the other pillows out of curiosity - EVERY SINGLE PILLOW HAD STRANDS OF LONG BLACK HAIR ON IT. Gah! At this point it's about 11pm, and I'm too tired to wait for new linens to be brought up. Just had to suck it up. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded November 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2017</t>
+  </si>
+  <si>
+    <t>Checked into room. Everything looked great at first glance. Noticed a bandaid tab near the bathroom trash. No big deal. Could happen to anyone. Got into the shower and noticed long black hair in the tub. No big deal. Could happen to anyone. Lifted my covers to get into bed. Long black hair on the sheet. Now I'm getting irritated. Picked up a pillow to fluff it, two long black hairs on it. Now I'm getting really concerned. Picked up the other pillows out of curiosity - EVERY SINGLE PILLOW HAD STRANDS OF LONG BLACK HAIR ON IT. Gah! At this point it's about 11pm, and I'm too tired to wait for new linens to be brought up. Just had to suck it up. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r507506107-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -405,6 +561,57 @@
     <t>Nice to see this as i travel. Rooms are what your would expect from the Mariott brand. clean and modern. Bed's are 5 Star .... what a nice suprise was the 4th. of july thought..  Hot Dogs and Chili... Nice. wine and beer even nicer....Love thiss place.... Patsy your fantastice... (She checked me in )More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r494145131-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>494145131</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Just what we needed</t>
+  </si>
+  <si>
+    <t>Newer, fresh, clean and excellent service.  2 miles from Hughes Landing, which is chock full of excellent restaurants and Starbucks.  Right off of I-45 so easy to get to.  Pool was a nice bonus.  Breakfast was as expected with decent variety.  We accidentally left an item in the room and Richard, the manager arranged for the return right away.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Newer, fresh, clean and excellent service.  2 miles from Hughes Landing, which is chock full of excellent restaurants and Starbucks.  Right off of I-45 so easy to get to.  Pool was a nice bonus.  Breakfast was as expected with decent variety.  We accidentally left an item in the room and Richard, the manager arranged for the return right away.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r489534642-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>489534642</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Pleasant Stay.</t>
+  </si>
+  <si>
+    <t>Being my 1st time in US i don't know what to expect initially. Hotel location was 30 minutes for airport during good traffic, which make this quite far away from tje downtown. But if you are looking to visit woodlands area, this hotel location is just perfect.They got me a very nice and quite room on the 3rd floor. Check in was simple and fast as I've pre booked it couple of days before my arrival. Room was spacious enough, even for couples. They have fullsize fridge, and full kitchen with microwave which is very convenient for me. Bathroom with bathtub. And they clean the room everyday.Other than that, front office is very helpful. Good shuttle service to anywhere 5 miles away. Breakfast is decent. Nice swimming pool area which i never had the chance to try. Overall : very recommended place.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded June 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2017</t>
+  </si>
+  <si>
+    <t>Being my 1st time in US i don't know what to expect initially. Hotel location was 30 minutes for airport during good traffic, which make this quite far away from tje downtown. But if you are looking to visit woodlands area, this hotel location is just perfect.They got me a very nice and quite room on the 3rd floor. Check in was simple and fast as I've pre booked it couple of days before my arrival. Room was spacious enough, even for couples. They have fullsize fridge, and full kitchen with microwave which is very convenient for me. Bathroom with bathtub. And they clean the room everyday.Other than that, front office is very helpful. Good shuttle service to anywhere 5 miles away. Breakfast is decent. Nice swimming pool area which i never had the chance to try. Overall : very recommended place.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r468622566-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -489,6 +696,61 @@
     <t>Our family stayed here when visiting relatives in the area. Our room was clean, well appointed and lived larger than it was. The staff was helpful and friendly. Breakfast was reasonably good with plenty of food, a little more variety would've been nice, but you at least didn't go hungry.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r444341032-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>444341032</t>
+  </si>
+  <si>
+    <t>12/14/2016</t>
+  </si>
+  <si>
+    <t>Rude staff behaviour</t>
+  </si>
+  <si>
+    <t>I chose this hotel since it provides shuttle services. The room facilities in this hotel are average and no comparison to the other and fairly priced hotels in the area. The staff is extremely rude. There is no sense of accountability at all.
+There is one cab driver - Jonathan who seems to be insane. The time clock set in the shuttle which Jonathan uses to drive is set 5 minutes faster. There was one instance where we arrived 3 minutes late and he screamed at us.  The next day he came late by 45 minutes and the Front desk blamed it on traffic. They do not have the basic courtesy to inform us if shuttle is getting delayed. I discussed this issue with Richard (Front Office Manager). He was courteous and assured us that the matter would be discussed with Jonathan.
+Today as I was packing up, my computer showed that there were some updates to be installed. I sent my colleague on time to the shuttle to inform Jonathan that I would join in about 2 to 3 minutes. He started screaming at my colleague and left and didn't provide an opportunity to my colleague to even call and inform me. I called up the Front desk. Ms Frances told us that since it is a complimentary shuttle, we will get the next shuttle only after one and a half hour, although the hotel provides shuttle services every...I chose this hotel since it provides shuttle services. The room facilities in this hotel are average and no comparison to the other and fairly priced hotels in the area. The staff is extremely rude. There is no sense of accountability at all.There is one cab driver - Jonathan who seems to be insane. The time clock set in the shuttle which Jonathan uses to drive is set 5 minutes faster. There was one instance where we arrived 3 minutes late and he screamed at us.  The next day he came late by 45 minutes and the Front desk blamed it on traffic. They do not have the basic courtesy to inform us if shuttle is getting delayed. I discussed this issue with Richard (Front Office Manager). He was courteous and assured us that the matter would be discussed with Jonathan.Today as I was packing up, my computer showed that there were some updates to be installed. I sent my colleague on time to the shuttle to inform Jonathan that I would join in about 2 to 3 minutes. He started screaming at my colleague and left and didn't provide an opportunity to my colleague to even call and inform me. I called up the Front desk. Ms Frances told us that since it is a complimentary shuttle, we will get the next shuttle only after one and a half hour, although the hotel provides shuttle services every half an hour. She refused to discuss this any further and was extremely rude.There have been many occasions when we have left our numbers at the Front desk requesting a call to inform us when the shuttle arrives. The staff are highly unprofessional in expecting us to wait and not complain when there is a delay at their end or due to traffic. We expect a basic courtesy call and not be kept waiting for 45 minutes without any explanation. There is absolutely no attempt to correct rude behaviour or the cab driver 'Jonathan'. Also, when a feedback is given to Jonathan. it reflects in his driving. He starts driving very rash.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded December 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2016</t>
+  </si>
+  <si>
+    <t>I chose this hotel since it provides shuttle services. The room facilities in this hotel are average and no comparison to the other and fairly priced hotels in the area. The staff is extremely rude. There is no sense of accountability at all.
+There is one cab driver - Jonathan who seems to be insane. The time clock set in the shuttle which Jonathan uses to drive is set 5 minutes faster. There was one instance where we arrived 3 minutes late and he screamed at us.  The next day he came late by 45 minutes and the Front desk blamed it on traffic. They do not have the basic courtesy to inform us if shuttle is getting delayed. I discussed this issue with Richard (Front Office Manager). He was courteous and assured us that the matter would be discussed with Jonathan.
+Today as I was packing up, my computer showed that there were some updates to be installed. I sent my colleague on time to the shuttle to inform Jonathan that I would join in about 2 to 3 minutes. He started screaming at my colleague and left and didn't provide an opportunity to my colleague to even call and inform me. I called up the Front desk. Ms Frances told us that since it is a complimentary shuttle, we will get the next shuttle only after one and a half hour, although the hotel provides shuttle services every...I chose this hotel since it provides shuttle services. The room facilities in this hotel are average and no comparison to the other and fairly priced hotels in the area. The staff is extremely rude. There is no sense of accountability at all.There is one cab driver - Jonathan who seems to be insane. The time clock set in the shuttle which Jonathan uses to drive is set 5 minutes faster. There was one instance where we arrived 3 minutes late and he screamed at us.  The next day he came late by 45 minutes and the Front desk blamed it on traffic. They do not have the basic courtesy to inform us if shuttle is getting delayed. I discussed this issue with Richard (Front Office Manager). He was courteous and assured us that the matter would be discussed with Jonathan.Today as I was packing up, my computer showed that there were some updates to be installed. I sent my colleague on time to the shuttle to inform Jonathan that I would join in about 2 to 3 minutes. He started screaming at my colleague and left and didn't provide an opportunity to my colleague to even call and inform me. I called up the Front desk. Ms Frances told us that since it is a complimentary shuttle, we will get the next shuttle only after one and a half hour, although the hotel provides shuttle services every half an hour. She refused to discuss this any further and was extremely rude.There have been many occasions when we have left our numbers at the Front desk requesting a call to inform us when the shuttle arrives. The staff are highly unprofessional in expecting us to wait and not complain when there is a delay at their end or due to traffic. We expect a basic courtesy call and not be kept waiting for 45 minutes without any explanation. There is absolutely no attempt to correct rude behaviour or the cab driver 'Jonathan'. Also, when a feedback is given to Jonathan. it reflects in his driving. He starts driving very rash.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r441716209-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>441716209</t>
+  </si>
+  <si>
+    <t>12/03/2016</t>
+  </si>
+  <si>
+    <t>Extended stay in the 3 star category</t>
+  </si>
+  <si>
+    <t>Overall the hotel was nice. Free breakfast every morning, a mid week meal in the evening. The staff was really nice. The hotel itself is a little older. You could tell by the tile and the bathrooms it was built a while ago. We stayed on the 3rd floor and didn't hear much of others until the weekend when a youth soccer team came and bombarded the breakfast area and decided to knock on doors and run. If you can get the room for the $69 rate and are staying for a while, it is worth it. If you just need a couple of nights at an extended stay, I would probably spend a little more somewhere else for an upgraded bathroom and tv service(they use directv but half the channels displayed were not available).MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded December 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2016</t>
+  </si>
+  <si>
+    <t>Overall the hotel was nice. Free breakfast every morning, a mid week meal in the evening. The staff was really nice. The hotel itself is a little older. You could tell by the tile and the bathrooms it was built a while ago. We stayed on the 3rd floor and didn't hear much of others until the weekend when a youth soccer team came and bombarded the breakfast area and decided to knock on doors and run. If you can get the room for the $69 rate and are staying for a while, it is worth it. If you just need a couple of nights at an extended stay, I would probably spend a little more somewhere else for an upgraded bathroom and tv service(they use directv but half the channels displayed were not available).More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r417698241-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -558,6 +820,57 @@
     <t>My sister and I stayed here for a night while attending a conference. It was very clean, staff was very friendly, good sized room with kitchen. Good amount of space and comfortable bed. Free breakfast with stay. I would stay here again. Great price too! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r411789544-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>411789544</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>Clean and friendly</t>
+  </si>
+  <si>
+    <t>Good location. Easy access to shops and restaurants. Quiet and calm lobby and breakfast dining area. Very clean rooms. Staff was very friendly. Quick and efficient check in process. Staff immediately asked for room preferences. Breakfast offered many choices.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded August 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2016</t>
+  </si>
+  <si>
+    <t>Good location. Easy access to shops and restaurants. Quiet and calm lobby and breakfast dining area. Very clean rooms. Staff was very friendly. Quick and efficient check in process. Staff immediately asked for room preferences. Breakfast offered many choices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r405355775-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>405355775</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Birthday visit</t>
+  </si>
+  <si>
+    <t>This is a great hotel for small family reunions or whenever you may need a few comforts of home including kitchens and stovetops. This is a central location with easy I40 freeway access. There is a Outback Steakhouse within walking distance. The staff is very friendly and helpful. They offer a local shuttle as well!MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded August 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2016</t>
+  </si>
+  <si>
+    <t>This is a great hotel for small family reunions or whenever you may need a few comforts of home including kitchens and stovetops. This is a central location with easy I40 freeway access. There is a Outback Steakhouse within walking distance. The staff is very friendly and helpful. They offer a local shuttle as well!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r402550406-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -633,6 +946,48 @@
     <t>Had 4 nights in this hotel and all was quite perfect.Confortable rooms with complete kitchen from american fridge to dish wash machine.Aircon was good and area is very quite at night.Easy to find in a nice business area.Beakfast is a little bit cheap....More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r388730585-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>388730585</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>Pleasant Short Stay...</t>
+  </si>
+  <si>
+    <t>We had a wedding in the area..we decided on  TownPlace Suites ....we were staying for one night. The person at the desk was very nice, the rooms were very clean, the beds comfortable..and the price was right.The breakfast was very good....basically a great decision. We would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a wedding in the area..we decided on  TownPlace Suites ....we were staying for one night. The person at the desk was very nice, the rooms were very clean, the beds comfortable..and the price was right.The breakfast was very good....basically a great decision. We would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r386379103-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>386379103</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Clean and comfy</t>
+  </si>
+  <si>
+    <t>Other than a long wait for check in due to only one person at the check in counter, we encountered no problems. The bed was comfy and the breakfast offerings were good. Will stay here again. Warning to families, the tv on the patio was consistently tuned to a channel with mature scenes and prolific profanity.MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded June 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2016</t>
+  </si>
+  <si>
+    <t>Other than a long wait for check in due to only one person at the check in counter, we encountered no problems. The bed was comfy and the breakfast offerings were good. Will stay here again. Warning to families, the tv on the patio was consistently tuned to a channel with mature scenes and prolific profanity.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r379917833-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -708,6 +1063,60 @@
     <t>Nice staff.  Good breakfast.  Comfy. Clean.  They have a nightly meal and drink service which is nice to have when traveling.  The room was nicely furnished.  The bed was comfortable.  Conveniently located near the highway.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r361357212-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>361357212</t>
+  </si>
+  <si>
+    <t>04/03/2016</t>
+  </si>
+  <si>
+    <t>Pleasant weekend stay</t>
+  </si>
+  <si>
+    <t>Comfortable beds.  Friendly staff.  Good breakfast with lots of selections.  Room could have been cleaner - they had this desk top to sit on the bed &amp; its handles were greasy.  Good showers, thick towels, nice pillows.  Could hear some noise from the room above us but it stopped before 11 p.m.:00MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded April 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2016</t>
+  </si>
+  <si>
+    <t>Comfortable beds.  Friendly staff.  Good breakfast with lots of selections.  Room could have been cleaner - they had this desk top to sit on the bed &amp; its handles were greasy.  Good showers, thick towels, nice pillows.  Could hear some noise from the room above us but it stopped before 11 p.m.:00More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r359507858-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>359507858</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights for business. Everything was great; room was spacious and clean, bed was comfy, the kitchen area was well stocked with everything we needed to cook a few meals in our room. The full size frig was a nice added feature. All the staff we encountered were very nice and courteous. Will def stay here again when we're back in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for three nights for business. Everything was great; room was spacious and clean, bed was comfy, the kitchen area was well stocked with everything we needed to cook a few meals in our room. The full size frig was a nice added feature. All the staff we encountered were very nice and courteous. Will def stay here again when we're back in the area. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r359128070-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -723,15 +1132,6 @@
     <t>I stayed here for a conference held at the Woodlands.  Only 10 minutes away, and easy to get to.  Very clean and a great breakfast.  Kitchen is a plus although I did not use it.  Air conditioning was a bit noisy.MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
-    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded March 29, 2016</t>
-  </si>
-  <si>
-    <t>Responded March 29, 2016</t>
-  </si>
-  <si>
     <t>I stayed here for a conference held at the Woodlands.  Only 10 minutes away, and easy to get to.  Very clean and a great breakfast.  Kitchen is a plus although I did not use it.  Air conditioning was a bit noisy.More</t>
   </si>
   <si>
@@ -786,6 +1186,60 @@
     <t>This hotel was in a great location near The Woodlands. The rooms were large with a complete kitchen - full size refrigerator, dishwasher, sink, microwave &amp; stovetop. Perfect for families or if you were needing to stay for an extended time. The beds are comfy &amp; the couch in each room also makes into a bed. The staff was very friendly. Breakfast is served daily &amp; they also have a cocktail hour during the weekdays. Great hotel for money! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r335262769-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>335262769</t>
+  </si>
+  <si>
+    <t>12/27/2015</t>
+  </si>
+  <si>
+    <t>Excellent hotel and easy to get to.</t>
+  </si>
+  <si>
+    <t>Great hotel easily located right off I-45 between Conroe and the Woodlands.  I have family nearby and this hotel was perfect for my needs.  Free breakfast buffet was also good.  I would stay here again for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded January 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2016</t>
+  </si>
+  <si>
+    <t>Great hotel easily located right off I-45 between Conroe and the Woodlands.  I have family nearby and this hotel was perfect for my needs.  Free breakfast buffet was also good.  I would stay here again for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r321594584-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>321594584</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>Good Value for Money!</t>
+  </si>
+  <si>
+    <t>This is the second time I have stayed at the TownePlace Suites and once again, they provided an excellent service in every way; rooms were clean and cared for; there was a 2-ringed electric cooker, microwave and full size fridge, so I could prepare food for myself to meet my medical needs; staff were pleasant and the evening meal was freshly prepared (3 nights only). Breakfast had plenty of options. They were also able to store items for me when I left for the weekend. It is centrally located for all activities in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded October 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2015</t>
+  </si>
+  <si>
+    <t>This is the second time I have stayed at the TownePlace Suites and once again, they provided an excellent service in every way; rooms were clean and cared for; there was a 2-ringed electric cooker, microwave and full size fridge, so I could prepare food for myself to meet my medical needs; staff were pleasant and the evening meal was freshly prepared (3 nights only). Breakfast had plenty of options. They were also able to store items for me when I left for the weekend. It is centrally located for all activities in the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r319294965-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -801,9 +1255,6 @@
     <t>Clean, modern and friendly! Stayed for two nights for the Texas Renaissance Festival. Check in was fast and friendly, room was clean and pretty large including the bathroom.Kitchenette was nice, I was surprised that it had a full size fridge and a dishwasher! Fantastic! The hotel also serves a hot breakfast which was delicious. The hotel is located close to a large shopping center and mall which was nice for a quick trip and dinner.Wouldn't hesitate to stay here next year for the festival.MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded October 17, 2015</t>
   </si>
   <si>
@@ -867,6 +1318,48 @@
     <t>Somewhat difficult to get to initially, especially when you are going North on I-45. But I figured it out. Once I arrived, I was met by a very friendly Front Desk person. She was very helpful and checked me in with no problems. Even answered some questions about nearby restaurants.Got to my room and was greeted by a very nice clean room. Had a small kitchenette, King Bed and nice sitting area. This room had everything you would need when traveling. I couldn't have asked for anything more.Figured out the back way to get places and I have to say this hotel is perfectly located if you are doing business in The Woodlands area or North Houston. I will be back in a few weeks and will most definitely be staying here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r304026218-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>304026218</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t>Home Away from Home</t>
+  </si>
+  <si>
+    <t>Check in took 2 minutes as I'd checked in via Marriott App which was perfect for our late night arrival.  The hotel is clean and modern. Our room was comfy and the kitchenette had everything including microwave oven and loved the large fridge and drip coffee maker.  The closets are Elfa - finally a decent hotel designed closet!The staff are so friendly and helpful. Nothing was too much trouble.  We stayed for 15 nights and having stayed in lots of hotels this really is great value for money with  everything we needed.  So much nicer than being charged for everything. Free hot and cold breakfast,  wi-fi, parking, gym,  newspapers and business center.  Even a social dinner and coffee available 24 hrs.A great outdoor pool with BBQ. The fitness center has great machines with tv's,  I especially liked the available luggage carts to transport bags to the car.  Perfect location just back off the I-45 and a quick drive along Grogans Mill to avoid the highway and easy access to the mall. The staff kept everyone informed during a 3am fire alarm which saw the hotel evacuated and luckily was a false alarm.There's doors on the sides of the hotel leading to the parking area with access via room key - so you don't have to come through the lobby each time.  This hotel is a shining example of what more hotels should be like.MoreShow less</t>
+  </si>
+  <si>
+    <t>Check in took 2 minutes as I'd checked in via Marriott App which was perfect for our late night arrival.  The hotel is clean and modern. Our room was comfy and the kitchenette had everything including microwave oven and loved the large fridge and drip coffee maker.  The closets are Elfa - finally a decent hotel designed closet!The staff are so friendly and helpful. Nothing was too much trouble.  We stayed for 15 nights and having stayed in lots of hotels this really is great value for money with  everything we needed.  So much nicer than being charged for everything. Free hot and cold breakfast,  wi-fi, parking, gym,  newspapers and business center.  Even a social dinner and coffee available 24 hrs.A great outdoor pool with BBQ. The fitness center has great machines with tv's,  I especially liked the available luggage carts to transport bags to the car.  Perfect location just back off the I-45 and a quick drive along Grogans Mill to avoid the highway and easy access to the mall. The staff kept everyone informed during a 3am fire alarm which saw the hotel evacuated and luckily was a false alarm.There's doors on the sides of the hotel leading to the parking area with access via room key - so you don't have to come through the lobby each time.  This hotel is a shining example of what more hotels should be like.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r300822745-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>300822745</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>Can't miss with this one!</t>
+  </si>
+  <si>
+    <t>Great! breakfast was decent, room was clean and comfortable (of note there is NO oven in kitchen) Staff was very helpful, grounds and pool were neat and clean.  Overall when the rpice is right the location is good for the northern area of the WoodlandsMoreShow less</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded August 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2015</t>
+  </si>
+  <si>
+    <t>Great! breakfast was decent, room was clean and comfortable (of note there is NO oven in kitchen) Staff was very helpful, grounds and pool were neat and clean.  Overall when the rpice is right the location is good for the northern area of the WoodlandsMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r295102022-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -945,6 +1438,57 @@
     <t>We were looking for a clean room and comfortable bed for the night.  The staff was marvelous.  The room was not only clean, but spacious.  The bed was very comfortable.  The only disadvantage was that we had to check out!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r281952089-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>281952089</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Great Rate and Clean Rooms</t>
+  </si>
+  <si>
+    <t>This place is very good! The staff, friendly; the rooms clean; and the breakfast pretty good. We asked for jalapenos to go with our eggs and they had it! And the rate was really good for the area it's in.We only stayed one night but it's in an area where I've stayed at other hotels so next time I'll remember to book this one again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded June 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2015</t>
+  </si>
+  <si>
+    <t>This place is very good! The staff, friendly; the rooms clean; and the breakfast pretty good. We asked for jalapenos to go with our eggs and they had it! And the rate was really good for the area it's in.We only stayed one night but it's in an area where I've stayed at other hotels so next time I'll remember to book this one again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r280498741-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>280498741</t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Hotel</t>
+  </si>
+  <si>
+    <t>I suppose it really wasn't the hotel's fault that the previous guest left the clock radio set to blare country music at 6:00 AM, but it really did put me in a poor frame of mind about my stay there. Overall, the room was okay. The breakfast was pretty good. The toilet didn't flush well-- I had to flush several times. But it was quiet (except for the country music at 6:00 AM) and the room was comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded June 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2015</t>
+  </si>
+  <si>
+    <t>I suppose it really wasn't the hotel's fault that the previous guest left the clock radio set to blare country music at 6:00 AM, but it really did put me in a poor frame of mind about my stay there. Overall, the room was okay. The breakfast was pretty good. The toilet didn't flush well-- I had to flush several times. But it was quiet (except for the country music at 6:00 AM) and the room was comfortable.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r272373578-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -960,9 +1504,6 @@
     <t>Very friendly staff on all shifts! We returned from visiting with friends late and were looking for a snack. They have a little snack for purchase area that we were looking through and the clerk was so eager to help that he offered some bagels from the closed kitchen! Everything was clean.MoreShow less</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
     <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded May 18, 2015</t>
   </si>
   <si>
@@ -1021,6 +1562,57 @@
   </si>
   <si>
     <t>The hotel is 3 stories high, and we stayed on the 3rd floor.The lobby and the breakfast area is very simple and clean.The room was ok. I stayed in the studio room, which was good enough for 2 people.The breakfast is free. WIFI is free.There is TwinPeaks restaurant next door in case you get hungry at night.There is a small convenience shop but they do not sell beer yet.There is a small pool and decent fitness area, which I didn't have a chance to use.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r257679548-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>257679548</t>
+  </si>
+  <si>
+    <t>03/04/2015</t>
+  </si>
+  <si>
+    <t>Great Place to Stay, Wonderful staff!!</t>
+  </si>
+  <si>
+    <t>We stayed 8 nights recently.  Just started new job and relocating to the area.  From the moment that we arrived, the staff including Richard, Brian, and Wendy made us feel right at home!  We had originally planned to stay a few nights but extended that because of the great attention to detail.  The room was very comfortable.  Another highlight is the ever changing breakfast and the evening reception with food, beer and wine.  Julia made sure to show us the offerings...Yum, Yum.If you plan on visiting the area, this is the place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded March 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2015</t>
+  </si>
+  <si>
+    <t>We stayed 8 nights recently.  Just started new job and relocating to the area.  From the moment that we arrived, the staff including Richard, Brian, and Wendy made us feel right at home!  We had originally planned to stay a few nights but extended that because of the great attention to detail.  The room was very comfortable.  Another highlight is the ever changing breakfast and the evening reception with food, beer and wine.  Julia made sure to show us the offerings...Yum, Yum.If you plan on visiting the area, this is the place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r254143862-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>254143862</t>
+  </si>
+  <si>
+    <t>02/14/2015</t>
+  </si>
+  <si>
+    <t>Superb!</t>
+  </si>
+  <si>
+    <t>I had a great stay with Towneplace. The front desk clerk, Christopher, was beyond helpful and full of energy! I wish a lot of employees took the time to greet their customers like Christopher!The room was clean and comfortable. This was my first time staying at this Marriott brand and I must say that I was pleasantly surprised. The full kitchen was great to have as an amenity.  The bed was comfy and I didn't hear a lot of hotel noise from other guest. I would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded February 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2015</t>
+  </si>
+  <si>
+    <t>I had a great stay with Towneplace. The front desk clerk, Christopher, was beyond helpful and full of energy! I wish a lot of employees took the time to greet their customers like Christopher!The room was clean and comfortable. This was my first time staying at this Marriott brand and I must say that I was pleasantly surprised. The full kitchen was great to have as an amenity.  The bed was comfy and I didn't hear a lot of hotel noise from other guest. I would definitely stay here again!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r251720014-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
@@ -1107,6 +1699,57 @@
     <t>Good value if you have an extended stay in the area. Small but good gym and staff is pro-active and friendly. Rooms are always clean and hotel has good laundry service. Internet is adequate and room appliances’ &amp; furnishings make staying in room to work covenant. The only complaint would be the road construction being carried out on the exit ramp on I-45 exiting to hotel. Traffic backing up is a real problem. I can recommend this hotel for the business traveler. ZieMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r215023734-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>215023734</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>Good, clean hotel</t>
+  </si>
+  <si>
+    <t>I stayed here in July 2013 and July 2014.  Hotel is generally clean and in good shape.  Small kitchen is nice (full size fridge, dishwasher, microwave, stove), which is nice since I stayed for a an athletic event and needed to keep some food cold leading up to it.  Only complaint is you can hear a lot of noise from the hallway in the room, not uncommon for this type of hotel, both times I stayed here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Richard V, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded August 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here in July 2013 and July 2014.  Hotel is generally clean and in good shape.  Small kitchen is nice (full size fridge, dishwasher, microwave, stove), which is nice since I stayed for a an athletic event and needed to keep some food cold leading up to it.  Only complaint is you can hear a lot of noise from the hallway in the room, not uncommon for this type of hotel, both times I stayed here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r207527337-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>207527337</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>If one needs to stay several days, this hotel is a great option. The rooms are nicely furnished with a lovely little kitchen with large refrigerator, dishwasher and two burner stove and furnished with everything to prepare food. However, if one is not interested in preparing meals, the free breakfast in the morning plus the evening offerings are enough for this reviewer. The evening offering of beer, red and white wine was a surprise. The pool area was nice and there is an outdoor fireplace in the patio which would be nice but it was never on during my visit. There are laundry facilities at a reasonable price and they did a good job of keeping the rooms clean. It's a fairly convenient location to the mall and other attractions. A little drive to downtown Houston or the Bush airport, however.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Mike T, Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded May 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2014</t>
+  </si>
+  <si>
+    <t>If one needs to stay several days, this hotel is a great option. The rooms are nicely furnished with a lovely little kitchen with large refrigerator, dishwasher and two burner stove and furnished with everything to prepare food. However, if one is not interested in preparing meals, the free breakfast in the morning plus the evening offerings are enough for this reviewer. The evening offering of beer, red and white wine was a surprise. The pool area was nice and there is an outdoor fireplace in the patio which would be nice but it was never on during my visit. There are laundry facilities at a reasonable price and they did a good job of keeping the rooms clean. It's a fairly convenient location to the mall and other attractions. A little drive to downtown Houston or the Bush airport, however.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r207041121-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -1122,9 +1765,6 @@
     <t>Great value and excellent staff!! Stayed for a night for a concert at Cynthia Woods Pavillion. Free shuttle to the venue and an easy cab ride home.   Friendliest staff I've ever encountered at a hotel. Very clean and a free hot breakfast..... I will definitely recommend!MoreShow less</t>
   </si>
   <si>
-    <t>May 2014</t>
-  </si>
-  <si>
     <t>Mike T, Task Force Manager MCR Development at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded May 27, 2014</t>
   </si>
   <si>
@@ -1185,6 +1825,60 @@
     <t>Great location -near the woodlands- and reasonably priced. Wonderful breakfast- eggs, sausage, fruit, oatmeal. In the evening fruit and coffee and cookies are provided. Your room has a stove top, full refrigerator and microwave as well as cookware. Beds are comfortable and clean.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r195685281-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>195685281</t>
+  </si>
+  <si>
+    <t>02/28/2014</t>
+  </si>
+  <si>
+    <t>Great Place To Stay!  No Complaints. Comfortable Bed!</t>
+  </si>
+  <si>
+    <t>The TownePlace Suites Houston The Woodlands far exceeded our expectations.  There are many hotels to pick from in The Woodlands area in this price range but this one is fantastic!  The hotel lobby is welcoming with flowers on the breakfast tables and a nice lounge area.  At reception are sometimes cookies or great hand lotions to sample. Their sundries are plenty and includes laundry soap if you want to use the laundry facility on location which is nice and clean.  The WiFi worked fast and the room had great amenities.  In the room is a small, yet adequate, kitchenette. In the closet is a laundry basket if you need to wash clothes.  They make everything very easy.  Breakfast offers enough choices and coffee to get you going.  Really, I can't say enough nice about the hotel.  We were in The Woodlands for a visit but previously lived there for years.  We know the area well and will definitely stay at the TownePlace Suites Houston The Woodlands again on our next visit.  Oh yes, I can't forget to say that the staff was very, very nice.  Judy Johnston, Director of Sales, was at reception when we left and she could not have been more pleasant..  Thanks to the staff for making our stay so quiet and nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Mike T, General Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded March 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2014</t>
+  </si>
+  <si>
+    <t>The TownePlace Suites Houston The Woodlands far exceeded our expectations.  There are many hotels to pick from in The Woodlands area in this price range but this one is fantastic!  The hotel lobby is welcoming with flowers on the breakfast tables and a nice lounge area.  At reception are sometimes cookies or great hand lotions to sample. Their sundries are plenty and includes laundry soap if you want to use the laundry facility on location which is nice and clean.  The WiFi worked fast and the room had great amenities.  In the room is a small, yet adequate, kitchenette. In the closet is a laundry basket if you need to wash clothes.  They make everything very easy.  Breakfast offers enough choices and coffee to get you going.  Really, I can't say enough nice about the hotel.  We were in The Woodlands for a visit but previously lived there for years.  We know the area well and will definitely stay at the TownePlace Suites Houston The Woodlands again on our next visit.  Oh yes, I can't forget to say that the staff was very, very nice.  Judy Johnston, Director of Sales, was at reception when we left and she could not have been more pleasant..  Thanks to the staff for making our stay so quiet and nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r194948831-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>194948831</t>
+  </si>
+  <si>
+    <t>02/22/2014</t>
+  </si>
+  <si>
+    <t>Suitable hotel for long stay</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 month and this hotel is really suitable as long stay hotel. They have large room with comfy bed, also each amenity was provided. Everything is good including the cleanliness, staff, car hotel, and facility. The minus point for me is only the food, less varied. Must be very boring to eat almost same food everyday for guest who has long stay like me. Although they have gym, but I prefer to jogging outside hotel, so fresh and the track was good. The shutter van is very unreliable, you can ask them to take you around Woodlands and also they will pick you up on time as your request for free. Highly recommended for you who has long stay for business trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Mike T, General Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded February 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 month and this hotel is really suitable as long stay hotel. They have large room with comfy bed, also each amenity was provided. Everything is good including the cleanliness, staff, car hotel, and facility. The minus point for me is only the food, less varied. Must be very boring to eat almost same food everyday for guest who has long stay like me. Although they have gym, but I prefer to jogging outside hotel, so fresh and the track was good. The shutter van is very unreliable, you can ask them to take you around Woodlands and also they will pick you up on time as your request for free. Highly recommended for you who has long stay for business trip.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r193590366-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -1200,9 +1894,6 @@
     <t>Our stay was very pleasant-all staff from guest register to cleaning to food service were friendly and helpful. Room was large, bed was comfortable, and every amenity was provided. I was somewhat apprehensive when a saw a negative comment, but my experience was completely different. Either there has been some extensive renovation done very recently, or someone just had a bad day. Nothing at all in our room or experience that any reasonable person could complain about, in fact, it was much better than places I have paid much more for. Highly recommended.MoreShow less</t>
   </si>
   <si>
-    <t>February 2014</t>
-  </si>
-  <si>
     <t>Mike T, General Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded February 20, 2014</t>
   </si>
   <si>
@@ -1254,12 +1945,42 @@
     <t>As most should know this line of Marriotts is designed for long-term stays although I stayed there overnight for a business trip. I was amazed that for a Marriott property (and I've stayed at dozens) how cheap this place felt. The heater smelled (#320), the toilet ran, the furniture was out of date and worn and worst of all, the sheets must have been 30 years old, very thin and poor quality. Yes, it is convenient to a lot of things, that's why I picked it in the first place but next time, I'll drive a little further and stay someplace nicer. My recommendation for typical business travelers to avoid this property.MoreShow less</t>
   </si>
   <si>
-    <t>December 2013</t>
-  </si>
-  <si>
     <t>As most should know this line of Marriotts is designed for long-term stays although I stayed there overnight for a business trip. I was amazed that for a Marriott property (and I've stayed at dozens) how cheap this place felt. The heater smelled (#320), the toilet ran, the furniture was out of date and worn and worst of all, the sheets must have been 30 years old, very thin and poor quality. Yes, it is convenient to a lot of things, that's why I picked it in the first place but next time, I'll drive a little further and stay someplace nicer. My recommendation for typical business travelers to avoid this property.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r181688362-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>181688362</t>
+  </si>
+  <si>
+    <t>10/20/2013</t>
+  </si>
+  <si>
+    <t>I was here for one month and a half, its a nice place, has a lot of stuff close ... and the enviroment is nice...  the food is really bad at the hotel but there is a lot of restaurants really close.. the mall its closes and there is a van whcich its is avialable to take you anywhere at the woodlans... the night life at the woodlands its fun.. 2 differents clubs and one bar make the differenceMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I was here for one month and a half, its a nice place, has a lot of stuff close ... and the enviroment is nice...  the food is really bad at the hotel but there is a lot of restaurants really close.. the mall its closes and there is a van whcich its is avialable to take you anywhere at the woodlans... the night life at the woodlands its fun.. 2 differents clubs and one bar make the differenceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r179054513-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>179054513</t>
+  </si>
+  <si>
+    <t>09/29/2013</t>
+  </si>
+  <si>
+    <t>Convenient Location, Mediocre Property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel is conveniently located to The Woodlands Mall, Cynthia Woods Mitchell Pavillion, and a plethora of restaurants. The property is a basic packaged Town Place Suites. Our room had a "squeaky" A/C unit that prevented a good nights sleep. I reported at check out and trust they will repair as the overall property condition was acceptable. Decent property, but nothing special. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r172682029-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -1323,6 +2044,48 @@
     <t xml:space="preserve">A little tricky to get to, but overall this hotel hits the right spot in value. The rooms are very ample and have anything you might need, here we found the comfiest bed in our trip. The breakfast far is definitely a plus, the food is varied and tasty. We stayed here because it is so close to the woodlands pavilion, and it was pretty easy to love around from here. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r156392280-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>156392280</t>
+  </si>
+  <si>
+    <t>04/02/2013</t>
+  </si>
+  <si>
+    <t>Decent hotel.</t>
+  </si>
+  <si>
+    <t>I have has some mixed thoughts on this place. Ill try to keep it positive. The staff is great- friendly, accommodating and helpful. It appears that they have a shuttle but I have not used it. Though the room is nice and has all if the things you would expect in a suite, it is very small and poorly laid out. It's unwelcoming walking into the door because its very tight. There's no counter space to set things in the kitchen. the TVs do not face the bed and the staff is aware of the problem because before I could get it out they told me I could rearrange the furniture. I knew this place wouldn't be that close to Houston but its more of a hike than I expected and the freeway system here requires that you keep passing the hotel and turning around to get to it. I have always heard the woodlands is one of the best neighborhoods in the USA but its really boring out here for young people. They have a nice pool but it's only outside so I haven't used it. I like the breakfast here and the free beer at night is a plus. I had a lot of things broken in my room and empty shampoo bottles when I checked in. No utensils in the kitchen. I would probably not stay here again mostly due to the location and the small room....I have has some mixed thoughts on this place. Ill try to keep it positive. The staff is great- friendly, accommodating and helpful. It appears that they have a shuttle but I have not used it. Though the room is nice and has all if the things you would expect in a suite, it is very small and poorly laid out. It's unwelcoming walking into the door because its very tight. There's no counter space to set things in the kitchen. the TVs do not face the bed and the staff is aware of the problem because before I could get it out they told me I could rearrange the furniture. I knew this place wouldn't be that close to Houston but its more of a hike than I expected and the freeway system here requires that you keep passing the hotel and turning around to get to it. I have always heard the woodlands is one of the best neighborhoods in the USA but its really boring out here for young people. They have a nice pool but it's only outside so I haven't used it. I like the breakfast here and the free beer at night is a plus. I had a lot of things broken in my room and empty shampoo bottles when I checked in. No utensils in the kitchen. I would probably not stay here again mostly due to the location and the small room. If you travel alone you might find the room quite adequate. I noticed several rooms have dogs so maybe people stay here because of the pet policy. I know that's why I stayed here. But the room isn't big enough for us all! Pet fee was very high in my experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>Amy L, General Manager at TownePlace Suites Houston North/Shenandoah, responded to this reviewResponded April 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2013</t>
+  </si>
+  <si>
+    <t>I have has some mixed thoughts on this place. Ill try to keep it positive. The staff is great- friendly, accommodating and helpful. It appears that they have a shuttle but I have not used it. Though the room is nice and has all if the things you would expect in a suite, it is very small and poorly laid out. It's unwelcoming walking into the door because its very tight. There's no counter space to set things in the kitchen. the TVs do not face the bed and the staff is aware of the problem because before I could get it out they told me I could rearrange the furniture. I knew this place wouldn't be that close to Houston but its more of a hike than I expected and the freeway system here requires that you keep passing the hotel and turning around to get to it. I have always heard the woodlands is one of the best neighborhoods in the USA but its really boring out here for young people. They have a nice pool but it's only outside so I haven't used it. I like the breakfast here and the free beer at night is a plus. I had a lot of things broken in my room and empty shampoo bottles when I checked in. No utensils in the kitchen. I would probably not stay here again mostly due to the location and the small room....I have has some mixed thoughts on this place. Ill try to keep it positive. The staff is great- friendly, accommodating and helpful. It appears that they have a shuttle but I have not used it. Though the room is nice and has all if the things you would expect in a suite, it is very small and poorly laid out. It's unwelcoming walking into the door because its very tight. There's no counter space to set things in the kitchen. the TVs do not face the bed and the staff is aware of the problem because before I could get it out they told me I could rearrange the furniture. I knew this place wouldn't be that close to Houston but its more of a hike than I expected and the freeway system here requires that you keep passing the hotel and turning around to get to it. I have always heard the woodlands is one of the best neighborhoods in the USA but its really boring out here for young people. They have a nice pool but it's only outside so I haven't used it. I like the breakfast here and the free beer at night is a plus. I had a lot of things broken in my room and empty shampoo bottles when I checked in. No utensils in the kitchen. I would probably not stay here again mostly due to the location and the small room. If you travel alone you might find the room quite adequate. I noticed several rooms have dogs so maybe people stay here because of the pet policy. I know that's why I stayed here. But the room isn't big enough for us all! Pet fee was very high in my experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r153139986-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>153139986</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>My wife was driving to the Houston area on a business trip, The Woodlands.  She was to be there for the week.  I had been wanting to ride by motorcycle from Dallas to Galviston, over to Corpus Christie to see the USS Lexington and the coast in between then back home.  This was the perfect time.  Weather was to be OK and a free place to stay in the Houston area for one night and a good meal with my wife then on my way with only one night of hotel expenses in Corpus Christie.  This place was somewhat easy to find but be sure to get off on exit early if coming from the north because of traffic and watch for it as this town does not allow large signs.  The staff is really good.  My wife stays here every time she goes to the area.  I have sent her flowers there and they always take special care of them until she arrives.  The pool is very nice.  Often they have very good evening snacks and the breakfast is good.  The rooms are great.  Parking is good and the location is great.  Very clean place.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>My wife was driving to the Houston area on a business trip, The Woodlands.  She was to be there for the week.  I had been wanting to ride by motorcycle from Dallas to Galviston, over to Corpus Christie to see the USS Lexington and the coast in between then back home.  This was the perfect time.  Weather was to be OK and a free place to stay in the Houston area for one night and a good meal with my wife then on my way with only one night of hotel expenses in Corpus Christie.  This place was somewhat easy to find but be sure to get off on exit early if coming from the north because of traffic and watch for it as this town does not allow large signs.  The staff is really good.  My wife stays here every time she goes to the area.  I have sent her flowers there and they always take special care of them until she arrives.  The pool is very nice.  Often they have very good evening snacks and the breakfast is good.  The rooms are great.  Parking is good and the location is great.  Very clean place.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r150953503-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -1392,6 +2155,36 @@
     <t>checkin using reward pts.. next morning CC charge hassles that required only Manager to correct. thankfully he did it without any hassles. employee gave us 2nd floor room tucked away in the corner with very loud guest. their kids went on and on all night and bright  early next morning in front of our door etc. no peace and quiet here. singles, couples, workers checkin without any kids. why not place away from the chaos upon request? woke up to find out CC charged!! LIVID   when we used PTS! just had bad 1 night due loud neighbors . matters made worse by the charge errors. credits to the professional manager  lol that came in on Saturday morning at decent hour before, we check out . he did the corrections FAST on the spot.  in front of the the employee that jacked things up in the first place. on the spot fast service so we had a good peaceful weekend. I'll call before returning to see if he is there next time to ensure things are done right from the start in quiet section of the hotel...exiti was blocked by several smokers refusing to move out the doorway. so we can get by and out of the property. awkward!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r147619701-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>147619701</t>
+  </si>
+  <si>
+    <t>12/17/2012</t>
+  </si>
+  <si>
+    <t>Great night sleep</t>
+  </si>
+  <si>
+    <t>I stayed at this Hotel on a Saturday night during December. The room was beautiful and the bed was very very comfortable with great smelling sheets. The breakfast was excellent and the lobby was charming with a great fireplace. The staff was very helpful with my TV remote. I just loved it and will look forward to returning soon!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r146516437-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>146516437</t>
+  </si>
+  <si>
+    <t>11/30/2012</t>
+  </si>
+  <si>
+    <t>Good property</t>
+  </si>
+  <si>
+    <t>Spent 4 nights here over Thanksgiving 2012.  Many good things about this economy class Marriott property.Great bed, good shower, very clean, decent breakfast, friendly staff, good location, large room.There were a few quirks such as bathroom door was mis-hung and did not close properly, and whoeverhooked up the water pipe to the toilet hooked up the hot water feed instead of the cold.  Made it moretoasty warm than one might like.  Funny that Marriott QC let these things slip by.All in all, this is a very good option for a decent price when compared to the way-overpriced joints in themain part of The Woodlands.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r146268268-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -1449,6 +2242,42 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r130610160-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>130610160</t>
+  </si>
+  <si>
+    <t>05/25/2012</t>
+  </si>
+  <si>
+    <t>Good Business Hotel</t>
+  </si>
+  <si>
+    <t>Stayed in TownePlace for 7 nights on business trip. Hotel is small and very nice. Rooms were very good with all required facility to have pleasent stay. Location is on I45. Had suttle services to go with in 5 miles. No resturants. Limited choice in breakfast. Friendly staff. Ample parking space.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r130239746-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>130239746</t>
+  </si>
+  <si>
+    <t>05/19/2012</t>
+  </si>
+  <si>
+    <t>Beyond belief service</t>
+  </si>
+  <si>
+    <t>We stayed here during ironman Texas.  The list of things I have to say about the level of service provided is long. The staff are so friendly and helpful. Our athelte crashed on the bike and ended up in the hospital. The manager said the shuttle driver was out so they PAID for my taxi to the hospital. Then, when we got back from the hospital, they had a bouquet of flowers and a "thinking of you" card for our athlete. Class act! I'm so impressed by them. Ask for anything and they did their best to provide. I've stayed at MUCH higher priced chain hotels and had far less service. Well done TownePlace Suites, especially the management.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here during ironman Texas.  The list of things I have to say about the level of service provided is long. The staff are so friendly and helpful. Our athelte crashed on the bike and ended up in the hospital. The manager said the shuttle driver was out so they PAID for my taxi to the hospital. Then, when we got back from the hospital, they had a bouquet of flowers and a "thinking of you" card for our athlete. Class act! I'm so impressed by them. Ask for anything and they did their best to provide. I've stayed at MUCH higher priced chain hotels and had far less service. Well done TownePlace Suites, especially the management.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r121006830-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -1509,6 +2338,48 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r112578911-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>112578911</t>
+  </si>
+  <si>
+    <t>06/10/2011</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 5 days in June. I couldn't be happier with this choice. The hotel was clean and the staff was friendly. Our room was perfect for 2 people. We went to the pool twice and it was clean. We did have to ask for towels 1 day and they brought them right out. The breakfast was fresh and good for a hotel "buffet". I had a maintenance man with a Louisianian accent (or southern not Texan) go out of his way to help me with a request. It was in close proximity to many restaurants. It took us awhile to get used to the Texas feeder system but other than that it was perfect!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 5 days in June. I couldn't be happier with this choice. The hotel was clean and the staff was friendly. Our room was perfect for 2 people. We went to the pool twice and it was clean. We did have to ask for towels 1 day and they brought them right out. The breakfast was fresh and good for a hotel "buffet". I had a maintenance man with a Louisianian accent (or southern not Texan) go out of his way to help me with a request. It was in close proximity to many restaurants. It took us awhile to get used to the Texas feeder system but other than that it was perfect!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r111511138-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>111511138</t>
+  </si>
+  <si>
+    <t>06/04/2011</t>
+  </si>
+  <si>
+    <t>Consistantly Great!!!</t>
+  </si>
+  <si>
+    <t>This hotel has become my home away from home over the past year.  I have stayed at this TownePlace Suites more than 20 times, and I am always delighted with the rooms, the staff, and the service.  If you are interested in a full-service hotel with in-house restaurants and bars, this would not be your choice (although there is an Outback Restaurant and Bar just across the parking lot).  However, if you are interested in a spacious room with a small kitchen area (including new stainless steel appliances - microwave, full-size refrigerator, glass surface cooktop, granite countertops, and a stainless steel sink), a new LCD TV, desk area, comfortable bed, and fresh bathroom facilities -- this would be the place for you.  I especially recommend this hotel for extended stays in The Woodlands area.  There is a great breakfast buffet every morning, and a dinner/appetizer meal with beer and wine on Monday-Wednesday evenings.  The staff is wonderful and will assist you in every way possible to make your stay enjoyable.  There is a fitness center, very nice pool area, and a great outdoor area (with a fireplace when the weather is cool).  I highly recommend the Towne Place Suites in The Woodlands.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>This hotel has become my home away from home over the past year.  I have stayed at this TownePlace Suites more than 20 times, and I am always delighted with the rooms, the staff, and the service.  If you are interested in a full-service hotel with in-house restaurants and bars, this would not be your choice (although there is an Outback Restaurant and Bar just across the parking lot).  However, if you are interested in a spacious room with a small kitchen area (including new stainless steel appliances - microwave, full-size refrigerator, glass surface cooktop, granite countertops, and a stainless steel sink), a new LCD TV, desk area, comfortable bed, and fresh bathroom facilities -- this would be the place for you.  I especially recommend this hotel for extended stays in The Woodlands area.  There is a great breakfast buffet every morning, and a dinner/appetizer meal with beer and wine on Monday-Wednesday evenings.  The staff is wonderful and will assist you in every way possible to make your stay enjoyable.  There is a fitness center, very nice pool area, and a great outdoor area (with a fireplace when the weather is cool).  I highly recommend the Towne Place Suites in The Woodlands.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r104538890-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -1557,6 +2428,42 @@
     <t>Clean, friendly staff, good workspace in rooms, enjoyed having a kitchenette in room. Nice stay, definitely will return!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r86949151-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>86949151</t>
+  </si>
+  <si>
+    <t>11/13/2010</t>
+  </si>
+  <si>
+    <t>Best staff ever!</t>
+  </si>
+  <si>
+    <t>My family &amp; I have stayed at this property over the years because of needing to visit Houston for medical reasons, and the hotel and staff are the best anywhere! They have been wonderful during our long length of stay, and very accommodating to our friends and family that have visited. I have traveled for 30 years, and the value here is incomparable. The breakfast bar is great, the rooms are great, can't say enough about the friendly staff.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r52055147-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>52055147</t>
+  </si>
+  <si>
+    <t>12/28/2009</t>
+  </si>
+  <si>
+    <t>Nice CLEAN, like-new place, great value</t>
+  </si>
+  <si>
+    <t>This is a great category 1 Marriott hotel, much better than some of the fancier places, because it was clean, fresh and well maintained. It included a FREE breakfast one of the few places that even have a few hot breakfast items.</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r50872167-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
   </si>
   <si>
@@ -1612,6 +2519,42 @@
   </si>
   <si>
     <t>We stayed at the Towneplace Suites (by Marriott) in The Woodlands, TX for 3 nights.   The hotel is new and everything was clean, fresh with comfortable beds.  The hotel is located within a mile to The Woodlands with its many shopping and dining choices.   They had a complimentary breakfast but we did not eat at the hotel so I can't comment on that.  The hotel was beautiful and they had a very nice outdoor pool.  The room had a small kitchenette (refrigerator, cooktop, microwave, sink) if you are interested in cooking.    We were there for the weekend and paid the weekend rate of $109.00 which is the same rate charged by the Residence Inn up the street.   The staff was friendly and helpful and we will definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r26738275-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>26738275</t>
+  </si>
+  <si>
+    <t>Excellent choice in the Woodlands</t>
+  </si>
+  <si>
+    <t>This new Hotel is behind the Outback between Research Forest Drive and HWY 242.  It was a challenge to locate at night in the rain but well worth it.  The staff was extremely friendly, offering a personalized welcome/thank you letter and quickly checked us in.  The iron was top notch, and the bed was super comfortable.  The only negatives that I can think of is the small fold out couch (love seat size) and the grout work in the shower that was disappointing but clean.  I loved the fact that the bathroom vanity had drawers to store things.  The fitness center and pool were a definate plus and the fact that there wasn't alot of noise so our stay there was very peaceful.  The complimentary breakfast was adequate, doughnuts, muffins, coffee and juice were the only things that we tried but the coffee was great.  I will definately stay there the next time we visit.  I wish more of the places that I stay were this good.MoreShow less</t>
+  </si>
+  <si>
+    <t>This new Hotel is behind the Outback between Research Forest Drive and HWY 242.  It was a challenge to locate at night in the rain but well worth it.  The staff was extremely friendly, offering a personalized welcome/thank you letter and quickly checked us in.  The iron was top notch, and the bed was super comfortable.  The only negatives that I can think of is the small fold out couch (love seat size) and the grout work in the shower that was disappointing but clean.  I loved the fact that the bathroom vanity had drawers to store things.  The fitness center and pool were a definate plus and the fact that there wasn't alot of noise so our stay there was very peaceful.  The complimentary breakfast was adequate, doughnuts, muffins, coffee and juice were the only things that we tried but the coffee was great.  I will definately stay there the next time we visit.  I wish more of the places that I stay were this good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g1009393-d1158825-r23742080-TownePlace_Suites_Houston_North_Shenandoah-Shenandoah_Texas.html</t>
+  </si>
+  <si>
+    <t>23742080</t>
+  </si>
+  <si>
+    <t>01/20/2009</t>
+  </si>
+  <si>
+    <t>The Name Is TownePlace Suites</t>
+  </si>
+  <si>
+    <t>Stayed one night on business. Check in was quick and easy with a friendly front desk. This is a new hotel that just opened October 3, 2008, so everything is still nice and fresh. The room is probably about 350 - 400 sf (about the same size as a two car garage).  When you open the door to the room, the small kitchenette is immediately on one side and the closet is on the other. There's a desk and a chair, but no table and chairs (there wouldn't be room for any either). There's a sleeper sofa with a coffee table, a nice flat screen tv (placed at an angle to the bed). The bed has an upgraded mattress and was very comfortable. The bathroom is small, but functional. Overall, I was very pleased with the room and the stay. The only thing that didn't make it perfect was that the ironing board and iron were standing in the corner of the room (instead of put away in the closet) and there were a few crumbs on the desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>Stayed one night on business. Check in was quick and easy with a friendly front desk. This is a new hotel that just opened October 3, 2008, so everything is still nice and fresh. The room is probably about 350 - 400 sf (about the same size as a two car garage).  When you open the door to the room, the small kitchenette is immediately on one side and the closet is on the other. There's a desk and a chair, but no table and chairs (there wouldn't be room for any either). There's a sleeper sofa with a coffee table, a nice flat screen tv (placed at an angle to the bed). The bed has an upgraded mattress and was very comfortable. The bathroom is small, but functional. Overall, I was very pleased with the room and the stay. The only thing that didn't make it perfect was that the ironing board and iron were standing in the corner of the room (instead of put away in the closet) and there were a few crumbs on the desk.More</t>
   </si>
 </sst>
 </file>
@@ -2146,7 +3089,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2215,14 +3158,12 @@
       <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -2280,29 +3221,25 @@
         <v>72</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
         <v>74</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>75</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -2318,42 +3255,42 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>77</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>78</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>79</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>80</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>81</v>
       </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>82</v>
       </c>
-      <c r="O5" t="s">
-        <v>53</v>
-      </c>
       <c r="P5" t="n">
         <v>5</v>
       </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
@@ -2409,28 +3346,32 @@
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
@@ -2446,7 +3387,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2455,25 +3396,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2531,32 +3472,28 @@
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
         <v>110</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>111</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9">
@@ -2572,41 +3509,47 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>113</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>114</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>115</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>116</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>117</v>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>109</v>
-      </c>
       <c r="O9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -2657,21 +3600,17 @@
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>91</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
@@ -2725,7 +3664,7 @@
         <v>134</v>
       </c>
       <c r="O11" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2786,7 +3725,7 @@
         <v>143</v>
       </c>
       <c r="O12" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2798,13 +3737,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>144</v>
+      </c>
+      <c r="X12" t="s">
         <v>145</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>146</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="13">
@@ -2820,58 +3759,52 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
         <v>148</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>149</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>150</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>151</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
         <v>152</v>
       </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
         <v>153</v>
       </c>
-      <c r="O13" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
-      <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>154</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>155</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="14">
@@ -2887,52 +3820,56 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
         <v>157</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>158</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>159</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>160</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>161</v>
       </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>162</v>
-      </c>
       <c r="O14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
+        <v>162</v>
+      </c>
+      <c r="X14" t="s">
         <v>163</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>164</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="15">
@@ -2948,19 +3885,19 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
         <v>166</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>167</v>
-      </c>
-      <c r="J15" t="s">
-        <v>159</v>
       </c>
       <c r="K15" t="s">
         <v>168</v>
@@ -2969,13 +3906,13 @@
         <v>169</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2987,13 +3924,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="X15" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
@@ -3009,7 +3946,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3018,43 +3955,47 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>144</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Y16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
@@ -3070,7 +4011,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3079,26 +4020,22 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>185</v>
-      </c>
-      <c r="O17" t="s">
-        <v>73</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
@@ -3152,13 +4089,13 @@
         <v>193</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="O18" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3170,13 +4107,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19">
@@ -3192,7 +4129,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3201,49 +4138,43 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="O19" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="X19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Y19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20">
@@ -3259,7 +4190,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3268,25 +4199,25 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J20" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3298,13 +4229,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="X20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Y20" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21">
@@ -3320,7 +4251,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3329,47 +4260,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J21" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K21" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="O21" t="s">
-        <v>144</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="X21" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Y21" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22">
@@ -3385,7 +4318,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3394,39 +4327,47 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J22" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>231</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="X22" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Y22" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23">
@@ -3442,7 +4383,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3451,49 +4392,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="J23" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K23" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L23" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="O23" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>4</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="X23" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Y23" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24">
@@ -3509,7 +4444,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3518,25 +4453,25 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J24" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K24" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L24" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="O24" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3548,13 +4483,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="X24" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Y24" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
@@ -3570,7 +4505,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3579,22 +4514,22 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
+        <v>253</v>
+      </c>
+      <c r="J25" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" t="s">
+        <v>254</v>
+      </c>
+      <c r="L25" t="s">
+        <v>255</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>248</v>
-      </c>
-      <c r="J25" t="s">
-        <v>249</v>
-      </c>
-      <c r="K25" t="s">
-        <v>250</v>
-      </c>
-      <c r="L25" t="s">
-        <v>251</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>252</v>
       </c>
       <c r="O25" t="s">
         <v>63</v>
@@ -3609,13 +4544,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="X25" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Y25" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26">
@@ -3631,7 +4566,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3640,49 +4575,43 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J26" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K26" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="X26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Y26" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27">
@@ -3698,7 +4627,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3707,49 +4636,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O27" t="s">
-        <v>91</v>
-      </c>
-      <c r="P27" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="X27" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28">
@@ -3765,7 +4694,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3774,36 +4703,32 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J28" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K28" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
@@ -3857,7 +4782,7 @@
         <v>288</v>
       </c>
       <c r="O29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3912,35 +4837,31 @@
         <v>296</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
+        <v>297</v>
+      </c>
+      <c r="X30" t="s">
         <v>298</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>299</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="31">
@@ -3956,56 +4877,58 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>300</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
         <v>301</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>302</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>303</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>304</v>
       </c>
-      <c r="L31" t="s">
-        <v>305</v>
-      </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
+        <v>305</v>
+      </c>
+      <c r="X31" t="s">
         <v>306</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>307</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="32">
@@ -4021,52 +4944,58 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>308</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
         <v>309</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>310</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>311</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>312</v>
       </c>
-      <c r="L32" t="s">
-        <v>313</v>
-      </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>314</v>
+        <v>262</v>
       </c>
       <c r="O32" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="X32" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="Y32" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33">
@@ -4082,56 +5011,52 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>314</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>315</v>
+      </c>
+      <c r="J33" t="s">
+        <v>316</v>
+      </c>
+      <c r="K33" t="s">
+        <v>317</v>
+      </c>
+      <c r="L33" t="s">
         <v>318</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
-        <v>319</v>
-      </c>
-      <c r="J33" t="s">
-        <v>320</v>
-      </c>
-      <c r="K33" t="s">
-        <v>321</v>
-      </c>
-      <c r="L33" t="s">
-        <v>322</v>
-      </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="O33" t="s">
-        <v>73</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="X33" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="Y33" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34">
@@ -4147,7 +5072,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4156,49 +5081,43 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J34" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K34" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L34" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="O34" t="s">
-        <v>73</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>4</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="X34" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="Y34" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35">
@@ -4214,43 +5133,41 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>330</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>331</v>
+      </c>
+      <c r="J35" t="s">
+        <v>332</v>
+      </c>
+      <c r="K35" t="s">
+        <v>333</v>
+      </c>
+      <c r="L35" t="s">
+        <v>334</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
         <v>335</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
-        <v>336</v>
-      </c>
-      <c r="J35" t="s">
-        <v>337</v>
-      </c>
-      <c r="K35" t="s">
-        <v>338</v>
-      </c>
-      <c r="L35" t="s">
-        <v>339</v>
-      </c>
-      <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s">
-        <v>340</v>
-      </c>
       <c r="O35" t="s">
-        <v>73</v>
-      </c>
-      <c r="P35" t="s"/>
+        <v>213</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
       <c r="Q35" t="s"/>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -4259,13 +5176,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="X35" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="Y35" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36">
@@ -4281,7 +5198,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4290,49 +5207,39 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="J36" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="K36" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L36" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s"/>
       <c r="O36" t="s"/>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>4</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="X36" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="Y36" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37">
@@ -4348,7 +5255,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4357,49 +5264,47 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="J37" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K37" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="L37" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="O37" t="s">
-        <v>91</v>
-      </c>
-      <c r="P37" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
       <c r="Q37" t="s"/>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="X37" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="Y37" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38">
@@ -4415,34 +5320,34 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>356</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>357</v>
+      </c>
+      <c r="J38" t="s">
+        <v>358</v>
+      </c>
+      <c r="K38" t="s">
+        <v>359</v>
+      </c>
+      <c r="L38" t="s">
+        <v>360</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
         <v>361</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
-        <v>362</v>
-      </c>
-      <c r="J38" t="s">
-        <v>363</v>
-      </c>
-      <c r="K38" t="s">
-        <v>364</v>
-      </c>
-      <c r="L38" t="s">
-        <v>365</v>
-      </c>
-      <c r="M38" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s">
-        <v>366</v>
-      </c>
       <c r="O38" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4454,13 +5359,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="X38" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="Y38" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39">
@@ -4476,7 +5381,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4485,49 +5390,49 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="J39" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="K39" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="L39" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
+      <c r="N39" t="s">
+        <v>361</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
       <c r="R39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="X39" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="Y39" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40">
@@ -4543,62 +5448,52 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>371</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>372</v>
+      </c>
+      <c r="J40" t="s">
+        <v>373</v>
+      </c>
+      <c r="K40" t="s">
+        <v>374</v>
+      </c>
+      <c r="L40" t="s">
+        <v>375</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>361</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>376</v>
+      </c>
+      <c r="X40" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y40" t="s">
         <v>378</v>
-      </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
-        <v>379</v>
-      </c>
-      <c r="J40" t="s">
-        <v>380</v>
-      </c>
-      <c r="K40" t="s">
-        <v>381</v>
-      </c>
-      <c r="L40" t="s">
-        <v>382</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s">
-        <v>383</v>
-      </c>
-      <c r="O40" t="s">
-        <v>73</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
-      <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>4</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="s">
-        <v>384</v>
-      </c>
-      <c r="X40" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="41">
@@ -4614,62 +5509,52 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>379</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>380</v>
+      </c>
+      <c r="J41" t="s">
+        <v>381</v>
+      </c>
+      <c r="K41" t="s">
+        <v>382</v>
+      </c>
+      <c r="L41" t="s">
+        <v>383</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>384</v>
+      </c>
+      <c r="O41" t="s">
+        <v>82</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>385</v>
+      </c>
+      <c r="X41" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y41" t="s">
         <v>387</v>
-      </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
-        <v>388</v>
-      </c>
-      <c r="J41" t="s">
-        <v>389</v>
-      </c>
-      <c r="K41" t="s">
-        <v>390</v>
-      </c>
-      <c r="L41" t="s">
-        <v>391</v>
-      </c>
-      <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s">
-        <v>392</v>
-      </c>
-      <c r="O41" t="s">
-        <v>63</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
-      <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="s">
-        <v>393</v>
-      </c>
-      <c r="X41" t="s">
-        <v>394</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="42">
@@ -4685,7 +5570,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4694,53 +5579,47 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="J42" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="K42" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="L42" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
       <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="X42" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="Y42" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43">
@@ -4756,7 +5635,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4765,53 +5644,47 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="J43" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="K43" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="L43" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="O43" t="s">
-        <v>91</v>
-      </c>
-      <c r="P43" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="n">
-        <v>2</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="X43" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Y43" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44">
@@ -4827,7 +5700,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4836,49 +5709,49 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="J44" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K44" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="L44" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="O44" t="s">
-        <v>91</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>411</v>
+      </c>
+      <c r="X44" t="s">
+        <v>412</v>
+      </c>
       <c r="Y44" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45">
@@ -4894,7 +5767,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4903,53 +5776,49 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="J45" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="K45" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="L45" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="O45" t="s">
-        <v>91</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
       <c r="Q45" t="n">
         <v>4</v>
       </c>
-      <c r="R45" t="n">
-        <v>3</v>
-      </c>
+      <c r="R45" t="s"/>
       <c r="S45" t="n">
         <v>5</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="X45" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="Y45" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46">
@@ -4965,54 +5834,56 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
+        <v>423</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>424</v>
+      </c>
+      <c r="J46" t="s">
+        <v>425</v>
+      </c>
+      <c r="K46" t="s">
+        <v>426</v>
+      </c>
+      <c r="L46" t="s">
+        <v>427</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
         <v>428</v>
       </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" t="s">
-        <v>429</v>
-      </c>
-      <c r="J46" t="s">
-        <v>430</v>
-      </c>
-      <c r="K46" t="s">
-        <v>431</v>
-      </c>
-      <c r="L46" t="s">
-        <v>432</v>
-      </c>
-      <c r="M46" t="n">
-        <v>5</v>
-      </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
-      <c r="P46" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
       <c r="S46" t="n">
         <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>429</v>
+      </c>
+      <c r="X46" t="s">
+        <v>430</v>
+      </c>
       <c r="Y46" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47">
@@ -5028,44 +5899,38 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
+        <v>432</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
         <v>433</v>
       </c>
-      <c r="G47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" t="s">
-        <v>47</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>434</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>435</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>436</v>
       </c>
-      <c r="L47" t="s">
-        <v>437</v>
-      </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="O47" t="s">
-        <v>63</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
       <c r="S47" t="n">
         <v>5</v>
       </c>
@@ -5077,13 +5942,13 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="X47" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Y47" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48">
@@ -5099,62 +5964,48 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
+        <v>438</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>439</v>
+      </c>
+      <c r="J48" t="s">
         <v>440</v>
       </c>
-      <c r="G48" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="K48" t="s">
         <v>441</v>
       </c>
-      <c r="J48" t="s">
+      <c r="L48" t="s">
         <v>442</v>
       </c>
-      <c r="K48" t="s">
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
         <v>443</v>
       </c>
-      <c r="L48" t="s">
+      <c r="X48" t="s">
         <v>444</v>
       </c>
-      <c r="M48" t="n">
-        <v>3</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="Y48" t="s">
         <v>445</v>
-      </c>
-      <c r="O48" t="s">
-        <v>91</v>
-      </c>
-      <c r="P48" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>3</v>
-      </c>
-      <c r="R48" t="n">
-        <v>4</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4</v>
-      </c>
-      <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>4</v>
-      </c>
-      <c r="V48" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" t="s">
-        <v>425</v>
-      </c>
-      <c r="X48" t="s">
-        <v>426</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="49">
@@ -5170,62 +6021,52 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
+        <v>446</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
         <v>447</v>
       </c>
-      <c r="G49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>448</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>449</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>450</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
         <v>451</v>
       </c>
-      <c r="M49" t="n">
-        <v>3</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
         <v>452</v>
       </c>
-      <c r="O49" t="s">
-        <v>91</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>3</v>
-      </c>
-      <c r="R49" t="n">
-        <v>4</v>
-      </c>
-      <c r="S49" t="n">
-        <v>4</v>
-      </c>
-      <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>1</v>
-      </c>
-      <c r="V49" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>453</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>454</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="50">
@@ -5241,44 +6082,38 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
+        <v>455</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
         <v>456</v>
       </c>
-      <c r="G50" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" t="s">
-        <v>47</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>457</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>458</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>459</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
         <v>460</v>
       </c>
-      <c r="M50" t="n">
-        <v>4</v>
-      </c>
-      <c r="N50" t="s">
-        <v>461</v>
-      </c>
       <c r="O50" t="s">
-        <v>91</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>4</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
         <v>5</v>
       </c>
@@ -5289,10 +6124,14 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>461</v>
+      </c>
+      <c r="X50" t="s">
+        <v>462</v>
+      </c>
       <c r="Y50" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51">
@@ -5308,7 +6147,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5317,39 +6156,47 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J51" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K51" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L51" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="O51" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
       <c r="R51" t="s"/>
       <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>469</v>
+      </c>
+      <c r="X51" t="s">
+        <v>470</v>
+      </c>
       <c r="Y51" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52">
@@ -5365,7 +6212,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5374,49 +6221,39 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="J52" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K52" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="L52" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
-      </c>
-      <c r="N52" t="s">
-        <v>474</v>
-      </c>
-      <c r="O52" t="s">
-        <v>91</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
-      <c r="R52" t="n">
         <v>4</v>
       </c>
-      <c r="S52" t="n">
-        <v>4</v>
-      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>5</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>477</v>
+      </c>
+      <c r="X52" t="s">
+        <v>478</v>
+      </c>
       <c r="Y52" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="53">
@@ -5432,7 +6269,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5441,49 +6278,49 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="J53" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="K53" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="L53" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
       <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R53" t="s"/>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>486</v>
+      </c>
+      <c r="X53" t="s">
+        <v>487</v>
+      </c>
       <c r="Y53" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54">
@@ -5499,7 +6336,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5508,49 +6345,43 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="J54" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="K54" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="L54" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O54" t="s">
-        <v>63</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
-      <c r="R54" t="n">
-        <v>4</v>
-      </c>
-      <c r="S54" t="n">
-        <v>4</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>5</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>494</v>
+      </c>
+      <c r="X54" t="s">
+        <v>495</v>
+      </c>
       <c r="Y54" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="55">
@@ -5566,7 +6397,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5575,45 +6406,47 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="J55" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="K55" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="L55" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="O55" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
       </c>
       <c r="Q55" t="s"/>
       <c r="R55" t="s"/>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>503</v>
+      </c>
+      <c r="X55" t="s">
+        <v>504</v>
+      </c>
       <c r="Y55" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="56">
@@ -5629,7 +6462,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5638,49 +6471,49 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="J56" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="K56" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="L56" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="O56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>5</v>
-      </c>
-      <c r="R56" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
       <c r="S56" t="n">
         <v>5</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>511</v>
+      </c>
+      <c r="X56" t="s">
+        <v>512</v>
+      </c>
       <c r="Y56" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
     </row>
     <row r="57">
@@ -5696,7 +6529,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5705,45 +6538,49 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="J57" t="s">
+        <v>516</v>
+      </c>
+      <c r="K57" t="s">
+        <v>517</v>
+      </c>
+      <c r="L57" t="s">
+        <v>518</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
         <v>502</v>
       </c>
-      <c r="K57" t="s">
-        <v>503</v>
-      </c>
-      <c r="L57" t="s">
-        <v>504</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="s"/>
-      <c r="O57" t="s"/>
-      <c r="P57" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>5</v>
-      </c>
+      <c r="O57" t="s">
+        <v>92</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
       <c r="R57" t="n">
         <v>5</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>519</v>
+      </c>
+      <c r="X57" t="s">
+        <v>520</v>
+      </c>
       <c r="Y57" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
     </row>
     <row r="58">
@@ -5759,7 +6596,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5768,45 +6605,43 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="J58" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="K58" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="L58" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
-      <c r="N58" t="s"/>
-      <c r="O58" t="s"/>
-      <c r="P58" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>5</v>
-      </c>
-      <c r="R58" t="n">
-        <v>5</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
+      <c r="N58" t="s">
+        <v>527</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>5</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>528</v>
+      </c>
+      <c r="X58" t="s">
+        <v>529</v>
+      </c>
       <c r="Y58" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
     </row>
     <row r="59">
@@ -5822,7 +6657,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5831,33 +6666,33 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="J59" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="K59" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="L59" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
-      <c r="N59" t="s"/>
-      <c r="O59" t="s"/>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>4</v>
-      </c>
+      <c r="N59" t="s">
+        <v>536</v>
+      </c>
+      <c r="O59" t="s">
+        <v>92</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
       <c r="R59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
@@ -5866,10 +6701,14 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>537</v>
+      </c>
+      <c r="X59" t="s">
+        <v>538</v>
+      </c>
       <c r="Y59" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
     </row>
     <row r="60">
@@ -5885,7 +6724,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5894,31 +6733,27 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="J60" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="K60" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="L60" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
-      <c r="N60" t="s">
-        <v>522</v>
-      </c>
-      <c r="O60" t="s">
-        <v>91</v>
-      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
       <c r="P60" t="n">
         <v>5</v>
       </c>
       <c r="Q60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R60" t="n">
         <v>5</v>
@@ -5933,10 +6768,14 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>545</v>
+      </c>
+      <c r="X60" t="s">
+        <v>546</v>
+      </c>
       <c r="Y60" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
     </row>
     <row r="61">
@@ -5952,7 +6791,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5961,49 +6800,2857 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="J61" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="K61" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
       <c r="L61" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="O61" t="s">
-        <v>63</v>
-      </c>
-      <c r="P61" t="n">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
         <v>4</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>5</v>
-      </c>
-      <c r="R61" t="n">
-        <v>4</v>
-      </c>
-      <c r="S61" t="n">
-        <v>5</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>554</v>
+      </c>
+      <c r="X61" t="s">
+        <v>555</v>
+      </c>
       <c r="Y61" t="s">
-        <v>529</v>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>557</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>558</v>
+      </c>
+      <c r="J62" t="s">
+        <v>559</v>
+      </c>
+      <c r="K62" t="s">
+        <v>560</v>
+      </c>
+      <c r="L62" t="s">
+        <v>561</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>553</v>
+      </c>
+      <c r="O62" t="s">
+        <v>63</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>562</v>
+      </c>
+      <c r="X62" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>565</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>566</v>
+      </c>
+      <c r="J63" t="s">
+        <v>567</v>
+      </c>
+      <c r="K63" t="s">
+        <v>568</v>
+      </c>
+      <c r="L63" t="s">
+        <v>569</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>570</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>571</v>
+      </c>
+      <c r="X63" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>574</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>575</v>
+      </c>
+      <c r="J64" t="s">
+        <v>576</v>
+      </c>
+      <c r="K64" t="s">
+        <v>577</v>
+      </c>
+      <c r="L64" t="s">
+        <v>578</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>570</v>
+      </c>
+      <c r="O64" t="s">
+        <v>82</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>579</v>
+      </c>
+      <c r="X64" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>582</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>583</v>
+      </c>
+      <c r="J65" t="s">
+        <v>584</v>
+      </c>
+      <c r="K65" t="s">
+        <v>585</v>
+      </c>
+      <c r="L65" t="s">
+        <v>586</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>587</v>
+      </c>
+      <c r="X65" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>590</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>591</v>
+      </c>
+      <c r="J66" t="s">
+        <v>592</v>
+      </c>
+      <c r="K66" t="s">
+        <v>593</v>
+      </c>
+      <c r="L66" t="s">
+        <v>594</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>595</v>
+      </c>
+      <c r="O66" t="s">
+        <v>92</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>596</v>
+      </c>
+      <c r="X66" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>599</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>600</v>
+      </c>
+      <c r="J67" t="s">
+        <v>601</v>
+      </c>
+      <c r="K67" t="s">
+        <v>602</v>
+      </c>
+      <c r="L67" t="s">
+        <v>603</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>604</v>
+      </c>
+      <c r="O67" t="s">
+        <v>82</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>605</v>
+      </c>
+      <c r="X67" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>608</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>609</v>
+      </c>
+      <c r="J68" t="s">
+        <v>610</v>
+      </c>
+      <c r="K68" t="s">
+        <v>611</v>
+      </c>
+      <c r="L68" t="s">
+        <v>612</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>613</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>614</v>
+      </c>
+      <c r="X68" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>617</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>618</v>
+      </c>
+      <c r="J69" t="s">
+        <v>619</v>
+      </c>
+      <c r="K69" t="s">
+        <v>620</v>
+      </c>
+      <c r="L69" t="s">
+        <v>621</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>604</v>
+      </c>
+      <c r="O69" t="s">
+        <v>82</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>622</v>
+      </c>
+      <c r="X69" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>625</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>626</v>
+      </c>
+      <c r="J70" t="s">
+        <v>627</v>
+      </c>
+      <c r="K70" t="s">
+        <v>628</v>
+      </c>
+      <c r="L70" t="s">
+        <v>629</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>630</v>
+      </c>
+      <c r="O70" t="s">
+        <v>63</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>631</v>
+      </c>
+      <c r="X70" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>634</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>635</v>
+      </c>
+      <c r="J71" t="s">
+        <v>636</v>
+      </c>
+      <c r="K71" t="s">
+        <v>637</v>
+      </c>
+      <c r="L71" t="s">
+        <v>638</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>613</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>631</v>
+      </c>
+      <c r="X71" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>640</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>641</v>
+      </c>
+      <c r="J72" t="s">
+        <v>642</v>
+      </c>
+      <c r="K72" t="s">
+        <v>568</v>
+      </c>
+      <c r="L72" t="s">
+        <v>643</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>644</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>631</v>
+      </c>
+      <c r="X72" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>646</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>647</v>
+      </c>
+      <c r="J73" t="s">
+        <v>648</v>
+      </c>
+      <c r="K73" t="s">
+        <v>649</v>
+      </c>
+      <c r="L73" t="s">
+        <v>650</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>644</v>
+      </c>
+      <c r="O73" t="s">
+        <v>92</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>651</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>652</v>
+      </c>
+      <c r="J74" t="s">
+        <v>653</v>
+      </c>
+      <c r="K74" t="s">
+        <v>654</v>
+      </c>
+      <c r="L74" t="s">
+        <v>655</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>656</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>658</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>659</v>
+      </c>
+      <c r="J75" t="s">
+        <v>660</v>
+      </c>
+      <c r="K75" t="s">
+        <v>661</v>
+      </c>
+      <c r="L75" t="s">
+        <v>662</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>663</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>664</v>
+      </c>
+      <c r="X75" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>667</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>668</v>
+      </c>
+      <c r="J76" t="s">
+        <v>669</v>
+      </c>
+      <c r="K76" t="s">
+        <v>670</v>
+      </c>
+      <c r="L76" t="s">
+        <v>671</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>672</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>673</v>
+      </c>
+      <c r="J77" t="s">
+        <v>674</v>
+      </c>
+      <c r="K77" t="s">
+        <v>675</v>
+      </c>
+      <c r="L77" t="s">
+        <v>676</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>677</v>
+      </c>
+      <c r="X77" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>680</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>681</v>
+      </c>
+      <c r="J78" t="s">
+        <v>682</v>
+      </c>
+      <c r="K78" t="s">
+        <v>342</v>
+      </c>
+      <c r="L78" t="s">
+        <v>683</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>684</v>
+      </c>
+      <c r="O78" t="s">
+        <v>63</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>686</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>687</v>
+      </c>
+      <c r="J79" t="s">
+        <v>688</v>
+      </c>
+      <c r="K79" t="s">
+        <v>689</v>
+      </c>
+      <c r="L79" t="s">
+        <v>690</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>691</v>
+      </c>
+      <c r="O79" t="s">
+        <v>82</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>664</v>
+      </c>
+      <c r="X79" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>693</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>694</v>
+      </c>
+      <c r="J80" t="s">
+        <v>695</v>
+      </c>
+      <c r="K80" t="s">
+        <v>696</v>
+      </c>
+      <c r="L80" t="s">
+        <v>697</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>698</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>664</v>
+      </c>
+      <c r="X80" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>700</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>701</v>
+      </c>
+      <c r="J81" t="s">
+        <v>702</v>
+      </c>
+      <c r="K81" t="s">
+        <v>703</v>
+      </c>
+      <c r="L81" t="s">
+        <v>704</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>705</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>706</v>
+      </c>
+      <c r="X81" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>709</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>710</v>
+      </c>
+      <c r="J82" t="s">
+        <v>711</v>
+      </c>
+      <c r="K82" t="s">
+        <v>712</v>
+      </c>
+      <c r="L82" t="s">
+        <v>713</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>705</v>
+      </c>
+      <c r="O82" t="s">
+        <v>63</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>714</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>715</v>
+      </c>
+      <c r="J83" t="s">
+        <v>716</v>
+      </c>
+      <c r="K83" t="s">
+        <v>717</v>
+      </c>
+      <c r="L83" t="s">
+        <v>718</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>691</v>
+      </c>
+      <c r="O83" t="s">
+        <v>82</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>719</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>720</v>
+      </c>
+      <c r="J84" t="s">
+        <v>721</v>
+      </c>
+      <c r="K84" t="s">
+        <v>722</v>
+      </c>
+      <c r="L84" t="s">
+        <v>723</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>724</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>726</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>727</v>
+      </c>
+      <c r="J85" t="s">
+        <v>728</v>
+      </c>
+      <c r="K85" t="s">
+        <v>729</v>
+      </c>
+      <c r="L85" t="s">
+        <v>730</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>731</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>732</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>733</v>
+      </c>
+      <c r="J86" t="s">
+        <v>734</v>
+      </c>
+      <c r="K86" t="s">
+        <v>735</v>
+      </c>
+      <c r="L86" t="s">
+        <v>736</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>737</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>738</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>739</v>
+      </c>
+      <c r="J87" t="s">
+        <v>740</v>
+      </c>
+      <c r="K87" t="s">
+        <v>741</v>
+      </c>
+      <c r="L87" t="s">
+        <v>742</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>743</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>744</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>745</v>
+      </c>
+      <c r="J88" t="s">
+        <v>746</v>
+      </c>
+      <c r="K88" t="s">
+        <v>747</v>
+      </c>
+      <c r="L88" t="s">
+        <v>748</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>743</v>
+      </c>
+      <c r="O88" t="s">
+        <v>213</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>750</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>751</v>
+      </c>
+      <c r="J89" t="s">
+        <v>752</v>
+      </c>
+      <c r="K89" t="s">
+        <v>753</v>
+      </c>
+      <c r="L89" t="s">
+        <v>754</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>755</v>
+      </c>
+      <c r="O89" t="s">
+        <v>82</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>757</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>758</v>
+      </c>
+      <c r="J90" t="s">
+        <v>759</v>
+      </c>
+      <c r="K90" t="s">
+        <v>760</v>
+      </c>
+      <c r="L90" t="s">
+        <v>761</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>762</v>
+      </c>
+      <c r="O90" t="s">
+        <v>82</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>764</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>765</v>
+      </c>
+      <c r="J91" t="s">
+        <v>766</v>
+      </c>
+      <c r="K91" t="s">
+        <v>767</v>
+      </c>
+      <c r="L91" t="s">
+        <v>768</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>769</v>
+      </c>
+      <c r="O91" t="s">
+        <v>82</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>770</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>771</v>
+      </c>
+      <c r="J92" t="s">
+        <v>772</v>
+      </c>
+      <c r="K92" t="s">
+        <v>773</v>
+      </c>
+      <c r="L92" t="s">
+        <v>774</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>775</v>
+      </c>
+      <c r="O92" t="s">
+        <v>82</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>777</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>778</v>
+      </c>
+      <c r="J93" t="s">
+        <v>779</v>
+      </c>
+      <c r="K93" t="s">
+        <v>780</v>
+      </c>
+      <c r="L93" t="s">
+        <v>781</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>782</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>784</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>785</v>
+      </c>
+      <c r="J94" t="s">
+        <v>786</v>
+      </c>
+      <c r="K94" t="s">
+        <v>787</v>
+      </c>
+      <c r="L94" t="s">
+        <v>788</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>769</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>789</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>790</v>
+      </c>
+      <c r="J95" t="s">
+        <v>791</v>
+      </c>
+      <c r="K95" t="s">
+        <v>792</v>
+      </c>
+      <c r="L95" t="s">
+        <v>793</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>1</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>795</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>796</v>
+      </c>
+      <c r="J96" t="s">
+        <v>797</v>
+      </c>
+      <c r="K96" t="s">
+        <v>798</v>
+      </c>
+      <c r="L96" t="s">
+        <v>799</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>800</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>801</v>
+      </c>
+      <c r="J97" t="s">
+        <v>802</v>
+      </c>
+      <c r="K97" t="s">
+        <v>803</v>
+      </c>
+      <c r="L97" t="s">
+        <v>804</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>805</v>
+      </c>
+      <c r="O97" t="s">
+        <v>92</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>806</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>807</v>
+      </c>
+      <c r="J98" t="s">
+        <v>808</v>
+      </c>
+      <c r="K98" t="s">
+        <v>809</v>
+      </c>
+      <c r="L98" t="s">
+        <v>810</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>811</v>
+      </c>
+      <c r="O98" t="s">
+        <v>213</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>812</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>813</v>
+      </c>
+      <c r="J99" t="s">
+        <v>814</v>
+      </c>
+      <c r="K99" t="s">
+        <v>815</v>
+      </c>
+      <c r="L99" t="s">
+        <v>816</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>818</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>819</v>
+      </c>
+      <c r="J100" t="s">
+        <v>820</v>
+      </c>
+      <c r="K100" t="s">
+        <v>821</v>
+      </c>
+      <c r="L100" t="s">
+        <v>822</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>823</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>824</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>825</v>
+      </c>
+      <c r="J101" t="s">
+        <v>826</v>
+      </c>
+      <c r="K101" t="s">
+        <v>827</v>
+      </c>
+      <c r="L101" t="s">
+        <v>828</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>829</v>
+      </c>
+      <c r="O101" t="s">
+        <v>82</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>831</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>832</v>
+      </c>
+      <c r="J102" t="s">
+        <v>826</v>
+      </c>
+      <c r="K102" t="s">
+        <v>833</v>
+      </c>
+      <c r="L102" t="s">
+        <v>834</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>829</v>
+      </c>
+      <c r="O102" t="s">
+        <v>92</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>57765</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>836</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>837</v>
+      </c>
+      <c r="J103" t="s">
+        <v>838</v>
+      </c>
+      <c r="K103" t="s">
+        <v>839</v>
+      </c>
+      <c r="L103" t="s">
+        <v>840</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>841</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>842</v>
       </c>
     </row>
   </sheetData>
